--- a/script/summary_banding/summary_konfigurasi_awal.xlsx
+++ b/script/summary_banding/summary_konfigurasi_awal.xlsx
@@ -76,604 +76,604 @@
     <t>konfigurasi_awal</t>
   </si>
   <si>
-    <t>2023-06-21 19:44:29 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 19:46:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 19:47:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 19:49:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 19:50:43 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 19:52:16 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 19:53:50 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 19:55:24 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 19:56:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 19:58:31 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:00:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:01:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:03:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:04:46 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:06:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:07:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:09:28 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:11:02 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:12:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:14:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:15:44 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:17:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:18:52 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:20:26 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:22:00 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:23:35 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:25:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:26:41 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:28:14 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:29:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:41:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:42:53 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:44:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:46:00 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:47:33 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:49:06 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:50:40 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:52:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:53:46 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:55:21 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:56:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 20:58:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:00:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:01:35 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:03:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:04:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:06:16 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:07:50 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:09:24 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:10:58 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:12:32 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:14:06 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:15:40 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:17:14 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:18:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:20:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:21:58 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:23:32 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:25:06 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:26:40 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:28:14 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:29:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:31:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:32:56 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:34:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:36:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:37:38 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:39:12 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:40:46 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:42:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:43:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:45:28 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:47:02 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:48:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:50:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:51:44 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:53:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:54:52 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:56:26 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:58:00 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 21:59:34 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:01:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:12:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:14:16 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:15:50 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:17:24 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:18:58 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:20:32 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:22:06 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:23:40 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:25:14 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:26:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:28:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:29:56 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:31:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:33:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:34:38 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:36:12 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:37:46 WIB</t>
-  </si>
-  <si>
-    <t>2023-06-21 22:39:20 WIB</t>
-  </si>
-  <si>
-    <t>1687351469</t>
-  </si>
-  <si>
-    <t>1687351563</t>
-  </si>
-  <si>
-    <t>1687351656</t>
-  </si>
-  <si>
-    <t>1687351750</t>
-  </si>
-  <si>
-    <t>1687351843</t>
-  </si>
-  <si>
-    <t>1687351936</t>
-  </si>
-  <si>
-    <t>1687352030</t>
-  </si>
-  <si>
-    <t>1687352124</t>
-  </si>
-  <si>
-    <t>1687352217</t>
-  </si>
-  <si>
-    <t>1687352311</t>
-  </si>
-  <si>
-    <t>1687352405</t>
-  </si>
-  <si>
-    <t>1687352499</t>
-  </si>
-  <si>
-    <t>1687352593</t>
-  </si>
-  <si>
-    <t>1687352686</t>
-  </si>
-  <si>
-    <t>1687352780</t>
-  </si>
-  <si>
-    <t>1687352874</t>
-  </si>
-  <si>
-    <t>1687352968</t>
-  </si>
-  <si>
-    <t>1687353062</t>
-  </si>
-  <si>
-    <t>1687353156</t>
-  </si>
-  <si>
-    <t>1687353250</t>
-  </si>
-  <si>
-    <t>1687353344</t>
-  </si>
-  <si>
-    <t>1687353438</t>
-  </si>
-  <si>
-    <t>1687353532</t>
-  </si>
-  <si>
-    <t>1687353626</t>
-  </si>
-  <si>
-    <t>1687353720</t>
-  </si>
-  <si>
-    <t>1687353815</t>
-  </si>
-  <si>
-    <t>1687353908</t>
-  </si>
-  <si>
-    <t>1687354001</t>
-  </si>
-  <si>
-    <t>1687354094</t>
-  </si>
-  <si>
-    <t>1687354187</t>
-  </si>
-  <si>
-    <t>1687354880</t>
-  </si>
-  <si>
-    <t>1687354973</t>
-  </si>
-  <si>
-    <t>1687355067</t>
-  </si>
-  <si>
-    <t>1687355160</t>
-  </si>
-  <si>
-    <t>1687355253</t>
-  </si>
-  <si>
-    <t>1687355346</t>
-  </si>
-  <si>
-    <t>1687355440</t>
-  </si>
-  <si>
-    <t>1687355533</t>
-  </si>
-  <si>
-    <t>1687355626</t>
-  </si>
-  <si>
-    <t>1687355721</t>
-  </si>
-  <si>
-    <t>1687355814</t>
-  </si>
-  <si>
-    <t>1687355907</t>
-  </si>
-  <si>
-    <t>1687356001</t>
-  </si>
-  <si>
-    <t>1687356095</t>
-  </si>
-  <si>
-    <t>1687356188</t>
-  </si>
-  <si>
-    <t>1687356282</t>
-  </si>
-  <si>
-    <t>1687356376</t>
-  </si>
-  <si>
-    <t>1687356470</t>
-  </si>
-  <si>
-    <t>1687356564</t>
-  </si>
-  <si>
-    <t>1687356658</t>
-  </si>
-  <si>
-    <t>1687356752</t>
-  </si>
-  <si>
-    <t>1687356846</t>
-  </si>
-  <si>
-    <t>1687356940</t>
-  </si>
-  <si>
-    <t>1687357034</t>
-  </si>
-  <si>
-    <t>1687357128</t>
-  </si>
-  <si>
-    <t>1687357222</t>
-  </si>
-  <si>
-    <t>1687357318</t>
-  </si>
-  <si>
-    <t>1687357412</t>
-  </si>
-  <si>
-    <t>1687357506</t>
-  </si>
-  <si>
-    <t>1687357600</t>
-  </si>
-  <si>
-    <t>1687357694</t>
-  </si>
-  <si>
-    <t>1687357788</t>
-  </si>
-  <si>
-    <t>1687357882</t>
-  </si>
-  <si>
-    <t>1687357976</t>
-  </si>
-  <si>
-    <t>1687358070</t>
-  </si>
-  <si>
-    <t>1687358164</t>
-  </si>
-  <si>
-    <t>1687358258</t>
-  </si>
-  <si>
-    <t>1687358352</t>
-  </si>
-  <si>
-    <t>1687358446</t>
-  </si>
-  <si>
-    <t>1687358540</t>
-  </si>
-  <si>
-    <t>1687358634</t>
-  </si>
-  <si>
-    <t>1687358728</t>
-  </si>
-  <si>
-    <t>1687358822</t>
-  </si>
-  <si>
-    <t>1687358916</t>
-  </si>
-  <si>
-    <t>1687359010</t>
-  </si>
-  <si>
-    <t>1687359104</t>
-  </si>
-  <si>
-    <t>1687359198</t>
-  </si>
-  <si>
-    <t>1687359292</t>
-  </si>
-  <si>
-    <t>1687359386</t>
-  </si>
-  <si>
-    <t>1687359480</t>
-  </si>
-  <si>
-    <t>1687359574</t>
-  </si>
-  <si>
-    <t>1687359668</t>
-  </si>
-  <si>
-    <t>1687360362</t>
-  </si>
-  <si>
-    <t>1687360456</t>
-  </si>
-  <si>
-    <t>1687360550</t>
-  </si>
-  <si>
-    <t>1687360644</t>
-  </si>
-  <si>
-    <t>1687360738</t>
-  </si>
-  <si>
-    <t>1687360832</t>
-  </si>
-  <si>
-    <t>1687360926</t>
-  </si>
-  <si>
-    <t>1687361020</t>
-  </si>
-  <si>
-    <t>1687361114</t>
-  </si>
-  <si>
-    <t>1687361208</t>
-  </si>
-  <si>
-    <t>1687361302</t>
-  </si>
-  <si>
-    <t>1687361396</t>
-  </si>
-  <si>
-    <t>1687361490</t>
-  </si>
-  <si>
-    <t>1687361584</t>
-  </si>
-  <si>
-    <t>1687361678</t>
-  </si>
-  <si>
-    <t>1687361772</t>
-  </si>
-  <si>
-    <t>1687361866</t>
-  </si>
-  <si>
-    <t>1687361960</t>
+    <t>2023-06-29 20:18:52 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:20:25 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:21:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:23:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:25:04 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:26:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:28:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:29:43 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:41:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:42:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:44:22 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:45:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:47:28 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:49:01 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:50:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:52:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:53:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:55:14 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:56:47 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:58:20 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:59:53 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:01:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:03:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:04:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:06:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:07:40 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:09:13 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:10:46 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:12:19 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:13:52 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:15:25 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:16:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:18:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:20:04 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:21:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:23:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:24:43 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:26:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:27:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:29:22 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:30:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:32:28 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:34:01 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:35:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:37:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:38:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:40:14 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:41:47 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:43:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:44:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:46:28 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:48:02 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:49:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:51:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:52:44 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:54:18 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:55:52 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:57:26 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:59:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:00:34 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:02:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:03:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:05:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:06:50 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:08:24 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:09:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:21:32 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:23:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:24:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:26:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:27:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:29:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:30:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:32:32 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:44:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:45:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:47:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:48:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:50:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:51:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:53:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:55:05 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:56:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:58:13 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:59:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:01:22 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:02:56 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:04:30 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:06:05 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:07:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:09:14 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:10:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:22:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:23:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:25:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:27:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:28:43 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:30:18 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:31:53 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:33:28 WIB</t>
+  </si>
+  <si>
+    <t>1688044732</t>
+  </si>
+  <si>
+    <t>1688044825</t>
+  </si>
+  <si>
+    <t>1688044918</t>
+  </si>
+  <si>
+    <t>1688045011</t>
+  </si>
+  <si>
+    <t>1688045104</t>
+  </si>
+  <si>
+    <t>1688045197</t>
+  </si>
+  <si>
+    <t>1688045290</t>
+  </si>
+  <si>
+    <t>1688045383</t>
+  </si>
+  <si>
+    <t>1688046076</t>
+  </si>
+  <si>
+    <t>1688046169</t>
+  </si>
+  <si>
+    <t>1688046262</t>
+  </si>
+  <si>
+    <t>1688046355</t>
+  </si>
+  <si>
+    <t>1688046448</t>
+  </si>
+  <si>
+    <t>1688046541</t>
+  </si>
+  <si>
+    <t>1688046635</t>
+  </si>
+  <si>
+    <t>1688046728</t>
+  </si>
+  <si>
+    <t>1688046821</t>
+  </si>
+  <si>
+    <t>1688046914</t>
+  </si>
+  <si>
+    <t>1688047007</t>
+  </si>
+  <si>
+    <t>1688047100</t>
+  </si>
+  <si>
+    <t>1688047193</t>
+  </si>
+  <si>
+    <t>1688047287</t>
+  </si>
+  <si>
+    <t>1688047380</t>
+  </si>
+  <si>
+    <t>1688047473</t>
+  </si>
+  <si>
+    <t>1688047566</t>
+  </si>
+  <si>
+    <t>1688047660</t>
+  </si>
+  <si>
+    <t>1688047753</t>
+  </si>
+  <si>
+    <t>1688047846</t>
+  </si>
+  <si>
+    <t>1688047939</t>
+  </si>
+  <si>
+    <t>1688048032</t>
+  </si>
+  <si>
+    <t>1688048125</t>
+  </si>
+  <si>
+    <t>1688048218</t>
+  </si>
+  <si>
+    <t>1688048311</t>
+  </si>
+  <si>
+    <t>1688048404</t>
+  </si>
+  <si>
+    <t>1688048497</t>
+  </si>
+  <si>
+    <t>1688048590</t>
+  </si>
+  <si>
+    <t>1688048683</t>
+  </si>
+  <si>
+    <t>1688048776</t>
+  </si>
+  <si>
+    <t>1688048869</t>
+  </si>
+  <si>
+    <t>1688048962</t>
+  </si>
+  <si>
+    <t>1688049055</t>
+  </si>
+  <si>
+    <t>1688049148</t>
+  </si>
+  <si>
+    <t>1688049241</t>
+  </si>
+  <si>
+    <t>1688049335</t>
+  </si>
+  <si>
+    <t>1688049428</t>
+  </si>
+  <si>
+    <t>1688049521</t>
+  </si>
+  <si>
+    <t>1688049614</t>
+  </si>
+  <si>
+    <t>1688049707</t>
+  </si>
+  <si>
+    <t>1688049801</t>
+  </si>
+  <si>
+    <t>1688049895</t>
+  </si>
+  <si>
+    <t>1688049988</t>
+  </si>
+  <si>
+    <t>1688050082</t>
+  </si>
+  <si>
+    <t>1688050176</t>
+  </si>
+  <si>
+    <t>1688050270</t>
+  </si>
+  <si>
+    <t>1688050364</t>
+  </si>
+  <si>
+    <t>1688050458</t>
+  </si>
+  <si>
+    <t>1688050552</t>
+  </si>
+  <si>
+    <t>1688050646</t>
+  </si>
+  <si>
+    <t>1688050740</t>
+  </si>
+  <si>
+    <t>1688050834</t>
+  </si>
+  <si>
+    <t>1688050928</t>
+  </si>
+  <si>
+    <t>1688051022</t>
+  </si>
+  <si>
+    <t>1688051116</t>
+  </si>
+  <si>
+    <t>1688051210</t>
+  </si>
+  <si>
+    <t>1688051304</t>
+  </si>
+  <si>
+    <t>1688051398</t>
+  </si>
+  <si>
+    <t>1688052092</t>
+  </si>
+  <si>
+    <t>1688052186</t>
+  </si>
+  <si>
+    <t>1688052281</t>
+  </si>
+  <si>
+    <t>1688052375</t>
+  </si>
+  <si>
+    <t>1688052469</t>
+  </si>
+  <si>
+    <t>1688052563</t>
+  </si>
+  <si>
+    <t>1688052658</t>
+  </si>
+  <si>
+    <t>1688052752</t>
+  </si>
+  <si>
+    <t>1688053446</t>
+  </si>
+  <si>
+    <t>1688053541</t>
+  </si>
+  <si>
+    <t>1688053635</t>
+  </si>
+  <si>
+    <t>1688053729</t>
+  </si>
+  <si>
+    <t>1688053823</t>
+  </si>
+  <si>
+    <t>1688053917</t>
+  </si>
+  <si>
+    <t>1688054011</t>
+  </si>
+  <si>
+    <t>1688054105</t>
+  </si>
+  <si>
+    <t>1688054199</t>
+  </si>
+  <si>
+    <t>1688054293</t>
+  </si>
+  <si>
+    <t>1688054388</t>
+  </si>
+  <si>
+    <t>1688054482</t>
+  </si>
+  <si>
+    <t>1688054576</t>
+  </si>
+  <si>
+    <t>1688054670</t>
+  </si>
+  <si>
+    <t>1688054765</t>
+  </si>
+  <si>
+    <t>1688054859</t>
+  </si>
+  <si>
+    <t>1688054954</t>
+  </si>
+  <si>
+    <t>1688055048</t>
+  </si>
+  <si>
+    <t>1688055743</t>
+  </si>
+  <si>
+    <t>1688055838</t>
+  </si>
+  <si>
+    <t>1688055933</t>
+  </si>
+  <si>
+    <t>1688056028</t>
+  </si>
+  <si>
+    <t>1688056123</t>
+  </si>
+  <si>
+    <t>1688056218</t>
+  </si>
+  <si>
+    <t>1688056313</t>
+  </si>
+  <si>
+    <t>1688056408</t>
   </si>
   <si>
     <t>GET /node/</t>
@@ -1160,40 +1160,40 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>12461</v>
+        <v>12758</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
       <c r="J2">
-        <v>59.64</v>
+        <v>59.85</v>
       </c>
       <c r="K2">
-        <v>674.03</v>
+        <v>690.1</v>
       </c>
       <c r="L2">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="M2">
-        <v>208.94</v>
+        <v>213.17</v>
       </c>
       <c r="N2">
-        <v>11.3</v>
+        <v>11.53</v>
       </c>
       <c r="O2">
-        <v>198.26</v>
+        <v>198.17</v>
       </c>
       <c r="P2">
-        <v>12461</v>
+        <v>12758</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>2.61</v>
+        <v>3.42</v>
       </c>
       <c r="S2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1219,40 +1219,40 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>12413</v>
+        <v>12734</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>59.96</v>
+        <v>59.4</v>
       </c>
       <c r="K3">
-        <v>671.4400000000001</v>
+        <v>688.8</v>
       </c>
       <c r="L3">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="M3">
-        <v>207.02</v>
+        <v>214.38</v>
       </c>
       <c r="N3">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="O3">
-        <v>198.06</v>
+        <v>197.69</v>
       </c>
       <c r="P3">
-        <v>12413</v>
+        <v>12734</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>3.21</v>
+        <v>3.81</v>
       </c>
       <c r="S3">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1278,37 +1278,37 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>12574</v>
+        <v>13148</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
-        <v>60.01</v>
+        <v>59.97</v>
       </c>
       <c r="K4">
-        <v>680.15</v>
+        <v>711.1900000000001</v>
       </c>
       <c r="L4">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="M4">
-        <v>209.53</v>
+        <v>219.24</v>
       </c>
       <c r="N4">
-        <v>11.33</v>
+        <v>11.86</v>
       </c>
       <c r="O4">
-        <v>197.88</v>
+        <v>198.17</v>
       </c>
       <c r="P4">
-        <v>12574</v>
+        <v>13148</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2.64</v>
+        <v>3.03</v>
       </c>
       <c r="S4">
         <v>0.02</v>
@@ -1337,37 +1337,37 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>12221</v>
+        <v>12577</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>59.07</v>
+        <v>59.72</v>
       </c>
       <c r="K5">
-        <v>661.05</v>
+        <v>680.3099999999999</v>
       </c>
       <c r="L5">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M5">
-        <v>206.89</v>
+        <v>210.6</v>
       </c>
       <c r="N5">
-        <v>11.19</v>
+        <v>11.39</v>
       </c>
       <c r="O5">
-        <v>197.71</v>
+        <v>197.65</v>
       </c>
       <c r="P5">
-        <v>12221</v>
+        <v>12577</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>2.81</v>
+        <v>3.25</v>
       </c>
       <c r="S5">
         <v>0.03</v>
@@ -1396,37 +1396,37 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>12336</v>
+        <v>12303</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
-        <v>59.22</v>
+        <v>59.14</v>
       </c>
       <c r="K6">
-        <v>667.27</v>
+        <v>665.49</v>
       </c>
       <c r="L6">
         <v>0.95</v>
       </c>
       <c r="M6">
-        <v>208.31</v>
+        <v>208.03</v>
       </c>
       <c r="N6">
-        <v>11.27</v>
+        <v>11.25</v>
       </c>
       <c r="O6">
-        <v>198.03</v>
+        <v>197.74</v>
       </c>
       <c r="P6">
-        <v>12336</v>
+        <v>12303</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>3.07</v>
+        <v>3.81</v>
       </c>
       <c r="S6">
         <v>0.02</v>
@@ -1455,37 +1455,37 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>12187</v>
+        <v>12967</v>
       </c>
       <c r="I7">
         <v>100</v>
       </c>
       <c r="J7">
-        <v>59.09</v>
+        <v>59.73</v>
       </c>
       <c r="K7">
-        <v>659.21</v>
+        <v>701.4</v>
       </c>
       <c r="L7">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="M7">
-        <v>206.24</v>
+        <v>217.09</v>
       </c>
       <c r="N7">
-        <v>11.16</v>
+        <v>11.74</v>
       </c>
       <c r="O7">
-        <v>390.85</v>
+        <v>392.57</v>
       </c>
       <c r="P7">
-        <v>12187</v>
+        <v>12967</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>5.98</v>
+        <v>7</v>
       </c>
       <c r="S7">
         <v>0.03</v>
@@ -1514,40 +1514,40 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>12501</v>
+        <v>12986</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
       <c r="J8">
-        <v>59.92</v>
+        <v>59.55</v>
       </c>
       <c r="K8">
-        <v>676.2</v>
+        <v>702.4299999999999</v>
       </c>
       <c r="L8">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M8">
-        <v>208.63</v>
+        <v>218.07</v>
       </c>
       <c r="N8">
-        <v>11.29</v>
+        <v>11.8</v>
       </c>
       <c r="O8">
-        <v>392</v>
+        <v>392.41</v>
       </c>
       <c r="P8">
-        <v>12501</v>
+        <v>12986</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>4.29</v>
+        <v>7.23</v>
       </c>
       <c r="S8">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1573,40 +1573,40 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>12388</v>
+        <v>12606</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>59.99</v>
+        <v>59.49</v>
       </c>
       <c r="K9">
-        <v>670.08</v>
+        <v>681.88</v>
       </c>
       <c r="L9">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="M9">
-        <v>206.5</v>
+        <v>211.9</v>
       </c>
       <c r="N9">
-        <v>11.17</v>
+        <v>11.46</v>
       </c>
       <c r="O9">
-        <v>392.08</v>
+        <v>389.75</v>
       </c>
       <c r="P9">
-        <v>12388</v>
+        <v>12606</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>4.35</v>
+        <v>6.41</v>
       </c>
       <c r="S9">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1632,37 +1632,37 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>12278</v>
+        <v>12240</v>
       </c>
       <c r="I10">
         <v>100</v>
       </c>
       <c r="J10">
-        <v>59.18</v>
+        <v>59.35</v>
       </c>
       <c r="K10">
-        <v>664.13</v>
+        <v>662.08</v>
       </c>
       <c r="L10">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="M10">
-        <v>207.47</v>
+        <v>206.23</v>
       </c>
       <c r="N10">
-        <v>11.22</v>
+        <v>11.16</v>
       </c>
       <c r="O10">
-        <v>392.29</v>
+        <v>392.64</v>
       </c>
       <c r="P10">
-        <v>12278</v>
+        <v>12240</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>5.04</v>
+        <v>6.36</v>
       </c>
       <c r="S10">
         <v>0.03</v>
@@ -1691,37 +1691,37 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>12426</v>
+        <v>12985</v>
       </c>
       <c r="I11">
         <v>100</v>
       </c>
       <c r="J11">
-        <v>59.67</v>
+        <v>59.55</v>
       </c>
       <c r="K11">
-        <v>672.14</v>
+        <v>702.38</v>
       </c>
       <c r="L11">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
-        <v>208.25</v>
+        <v>218.05</v>
       </c>
       <c r="N11">
-        <v>11.26</v>
+        <v>11.79</v>
       </c>
       <c r="O11">
-        <v>388.5</v>
+        <v>391.9</v>
       </c>
       <c r="P11">
-        <v>12426</v>
+        <v>12985</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>4.45</v>
+        <v>5.55</v>
       </c>
       <c r="S11">
         <v>0.03</v>
@@ -1750,37 +1750,37 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>11644</v>
+        <v>12645</v>
       </c>
       <c r="I12">
         <v>100</v>
       </c>
       <c r="J12">
-        <v>59.52</v>
+        <v>59.84</v>
       </c>
       <c r="K12">
-        <v>629.84</v>
+        <v>683.99</v>
       </c>
       <c r="L12">
-        <v>2.97</v>
+        <v>2.75</v>
       </c>
       <c r="M12">
-        <v>195.63</v>
+        <v>211.31</v>
       </c>
       <c r="N12">
-        <v>10.58</v>
+        <v>11.43</v>
       </c>
       <c r="O12">
-        <v>581.45</v>
+        <v>582.03</v>
       </c>
       <c r="P12">
-        <v>11644</v>
+        <v>12645</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>9.85</v>
+        <v>9.77</v>
       </c>
       <c r="S12">
         <v>0.04</v>
@@ -1809,40 +1809,40 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>11947</v>
+        <v>12797</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
-        <v>59.5</v>
+        <v>59.42</v>
       </c>
       <c r="K13">
-        <v>646.23</v>
+        <v>692.21</v>
       </c>
       <c r="L13">
-        <v>2.88</v>
+        <v>2.69</v>
       </c>
       <c r="M13">
-        <v>200.79</v>
+        <v>215.37</v>
       </c>
       <c r="N13">
-        <v>10.86</v>
+        <v>11.65</v>
       </c>
       <c r="O13">
-        <v>578.4299999999999</v>
+        <v>580.1900000000001</v>
       </c>
       <c r="P13">
-        <v>11947</v>
+        <v>12797</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>7.05</v>
+        <v>10.48</v>
       </c>
       <c r="S13">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1868,40 +1868,40 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>12314</v>
+        <v>12383</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>59.66</v>
+        <v>59.32</v>
       </c>
       <c r="K14">
-        <v>666.08</v>
+        <v>669.8099999999999</v>
       </c>
       <c r="L14">
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="M14">
-        <v>206.4</v>
+        <v>208.75</v>
       </c>
       <c r="N14">
-        <v>11.16</v>
+        <v>11.29</v>
       </c>
       <c r="O14">
-        <v>583.88</v>
+        <v>585.97</v>
       </c>
       <c r="P14">
-        <v>12314</v>
+        <v>12383</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>8.73</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="S14">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1927,40 +1927,40 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>11906</v>
+        <v>12396</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="J15">
-        <v>59.09</v>
+        <v>59.27</v>
       </c>
       <c r="K15">
-        <v>644.01</v>
+        <v>670.52</v>
       </c>
       <c r="L15">
-        <v>2.89</v>
+        <v>2.77</v>
       </c>
       <c r="M15">
-        <v>201.49</v>
+        <v>209.14</v>
       </c>
       <c r="N15">
-        <v>10.9</v>
+        <v>11.31</v>
       </c>
       <c r="O15">
-        <v>582.7</v>
+        <v>580.16</v>
       </c>
       <c r="P15">
-        <v>11906</v>
+        <v>12396</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>10.27</v>
+        <v>10.35</v>
       </c>
       <c r="S15">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1986,40 +1986,40 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>11959</v>
+        <v>12298</v>
       </c>
       <c r="I16">
         <v>100</v>
       </c>
       <c r="J16">
-        <v>59.96</v>
+        <v>59.68</v>
       </c>
       <c r="K16">
-        <v>646.88</v>
+        <v>665.22</v>
       </c>
       <c r="L16">
-        <v>2.9</v>
+        <v>2.81</v>
       </c>
       <c r="M16">
-        <v>199.45</v>
+        <v>206.07</v>
       </c>
       <c r="N16">
-        <v>10.79</v>
+        <v>11.15</v>
       </c>
       <c r="O16">
-        <v>578.84</v>
+        <v>578.22</v>
       </c>
       <c r="P16">
-        <v>11959</v>
+        <v>12298</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>7.88</v>
+        <v>10.93</v>
       </c>
       <c r="S16">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2045,40 +2045,40 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>12246</v>
+        <v>12034</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>99.28</v>
       </c>
       <c r="J17">
-        <v>59.87</v>
+        <v>59.18</v>
       </c>
       <c r="K17">
-        <v>662.4</v>
+        <v>650.99</v>
       </c>
       <c r="L17">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>204.54</v>
+        <v>203.35</v>
       </c>
       <c r="N17">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="O17">
-        <v>773.4</v>
+        <v>762.91</v>
       </c>
       <c r="P17">
-        <v>12246</v>
+        <v>12035</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="R17">
-        <v>9.300000000000001</v>
+        <v>11.92</v>
       </c>
       <c r="S17">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2104,40 +2104,40 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>11891</v>
+        <v>11998</v>
       </c>
       <c r="I18">
-        <v>100</v>
+        <v>99.03</v>
       </c>
       <c r="J18">
-        <v>59.06</v>
+        <v>59.04</v>
       </c>
       <c r="K18">
-        <v>643.2</v>
+        <v>648.99</v>
       </c>
       <c r="L18">
-        <v>3.81</v>
+        <v>3.61</v>
       </c>
       <c r="M18">
-        <v>201.34</v>
+        <v>203.22</v>
       </c>
       <c r="N18">
-        <v>10.89</v>
+        <v>10.99</v>
       </c>
       <c r="O18">
-        <v>766.8</v>
+        <v>734.59</v>
       </c>
       <c r="P18">
-        <v>11891</v>
+        <v>11998</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="R18">
-        <v>9.68</v>
+        <v>13.03</v>
       </c>
       <c r="S18">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2163,40 +2163,40 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>12054</v>
+        <v>12438</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
       <c r="J19">
-        <v>59.37</v>
+        <v>59.21</v>
       </c>
       <c r="K19">
-        <v>652.02</v>
+        <v>672.79</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
       <c r="M19">
-        <v>203.03</v>
+        <v>210.07</v>
       </c>
       <c r="N19">
-        <v>10.98</v>
+        <v>11.36</v>
       </c>
       <c r="O19">
-        <v>762.23</v>
+        <v>768.9299999999999</v>
       </c>
       <c r="P19">
-        <v>12054</v>
+        <v>12438</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>11.62</v>
+        <v>11.7</v>
       </c>
       <c r="S19">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2222,40 +2222,40 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>12221</v>
+        <v>12582</v>
       </c>
       <c r="I20">
         <v>100</v>
       </c>
       <c r="J20">
-        <v>59.55</v>
+        <v>59.21</v>
       </c>
       <c r="K20">
-        <v>661.05</v>
+        <v>680.58</v>
       </c>
       <c r="L20">
-        <v>3.72</v>
+        <v>3.61</v>
       </c>
       <c r="M20">
-        <v>205.22</v>
+        <v>212.5</v>
       </c>
       <c r="N20">
-        <v>11.1</v>
+        <v>11.49</v>
       </c>
       <c r="O20">
-        <v>763.24</v>
+        <v>766.63</v>
       </c>
       <c r="P20">
-        <v>12221</v>
+        <v>12582</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>9.699999999999999</v>
+        <v>10.45</v>
       </c>
       <c r="S20">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2281,40 +2281,40 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>12260</v>
+        <v>12292</v>
       </c>
       <c r="I21">
-        <v>100</v>
+        <v>99.31</v>
       </c>
       <c r="J21">
-        <v>59.63</v>
+        <v>59.14</v>
       </c>
       <c r="K21">
-        <v>663.16</v>
+        <v>664.89</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M21">
-        <v>205.6</v>
+        <v>207.85</v>
       </c>
       <c r="N21">
-        <v>11.12</v>
+        <v>11.24</v>
       </c>
       <c r="O21">
-        <v>780.89</v>
+        <v>769.36</v>
       </c>
       <c r="P21">
-        <v>12260</v>
+        <v>12292</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="R21">
-        <v>11.26</v>
+        <v>16.49</v>
       </c>
       <c r="S21">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2340,40 +2340,40 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>11702</v>
+        <v>10986</v>
       </c>
       <c r="I22">
-        <v>98.34</v>
+        <v>97.22</v>
       </c>
       <c r="J22">
-        <v>60</v>
+        <v>59.16</v>
       </c>
       <c r="K22">
-        <v>632.98</v>
+        <v>594.25</v>
       </c>
       <c r="L22">
-        <v>4.78</v>
+        <v>4.91</v>
       </c>
       <c r="M22">
-        <v>195.03</v>
+        <v>185.7</v>
       </c>
       <c r="N22">
-        <v>10.55</v>
+        <v>10.04</v>
       </c>
       <c r="O22">
-        <v>931.38</v>
+        <v>912.1</v>
       </c>
       <c r="P22">
-        <v>11702</v>
+        <v>10986</v>
       </c>
       <c r="Q22">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="R22">
-        <v>17.07</v>
+        <v>18.21</v>
       </c>
       <c r="S22">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2399,40 +2399,40 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>12080</v>
+        <v>12697</v>
       </c>
       <c r="I23">
-        <v>100</v>
+        <v>98.81</v>
       </c>
       <c r="J23">
-        <v>59.65</v>
+        <v>59.78</v>
       </c>
       <c r="K23">
-        <v>653.42</v>
+        <v>686.8</v>
       </c>
       <c r="L23">
-        <v>4.79</v>
+        <v>4.47</v>
       </c>
       <c r="M23">
-        <v>202.51</v>
+        <v>212.4</v>
       </c>
       <c r="N23">
-        <v>10.95</v>
+        <v>11.49</v>
       </c>
       <c r="O23">
-        <v>969.27</v>
+        <v>949.48</v>
       </c>
       <c r="P23">
-        <v>12080</v>
+        <v>12697</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="R23">
-        <v>13.29</v>
+        <v>16.85</v>
       </c>
       <c r="S23">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2458,40 +2458,40 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>11538</v>
+        <v>12224</v>
       </c>
       <c r="I24">
-        <v>96.01000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="J24">
-        <v>59.42</v>
+        <v>59.72</v>
       </c>
       <c r="K24">
-        <v>624.11</v>
+        <v>661.21</v>
       </c>
       <c r="L24">
-        <v>4.32</v>
+        <v>4.51</v>
       </c>
       <c r="M24">
-        <v>194.18</v>
+        <v>204.69</v>
       </c>
       <c r="N24">
-        <v>10.5</v>
+        <v>11.07</v>
       </c>
       <c r="O24">
-        <v>838.4299999999999</v>
+        <v>922.29</v>
       </c>
       <c r="P24">
-        <v>11538</v>
+        <v>12224</v>
       </c>
       <c r="Q24">
-        <v>480</v>
+        <v>212</v>
       </c>
       <c r="R24">
-        <v>12.79</v>
+        <v>15.22</v>
       </c>
       <c r="S24">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2517,40 +2517,40 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>11793</v>
+        <v>11587</v>
       </c>
       <c r="I25">
-        <v>98.09999999999999</v>
+        <v>95.81</v>
       </c>
       <c r="J25">
-        <v>59.79</v>
+        <v>59.46</v>
       </c>
       <c r="K25">
-        <v>637.9</v>
+        <v>626.76</v>
       </c>
       <c r="L25">
-        <v>4.81</v>
+        <v>4.37</v>
       </c>
       <c r="M25">
-        <v>197.24</v>
+        <v>194.87</v>
       </c>
       <c r="N25">
-        <v>10.67</v>
+        <v>10.54</v>
       </c>
       <c r="O25">
-        <v>948.13</v>
+        <v>851.55</v>
       </c>
       <c r="P25">
-        <v>11793</v>
+        <v>11587</v>
       </c>
       <c r="Q25">
-        <v>228</v>
+        <v>507</v>
       </c>
       <c r="R25">
-        <v>12.99</v>
+        <v>11.97</v>
       </c>
       <c r="S25">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2576,40 +2576,40 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>11376</v>
+        <v>11978</v>
       </c>
       <c r="I26">
-        <v>95.64</v>
+        <v>100</v>
       </c>
       <c r="J26">
-        <v>59.88</v>
+        <v>59.14</v>
       </c>
       <c r="K26">
-        <v>615.34</v>
+        <v>647.91</v>
       </c>
       <c r="L26">
         <v>4.7</v>
       </c>
       <c r="M26">
-        <v>189.98</v>
+        <v>202.54</v>
       </c>
       <c r="N26">
-        <v>10.28</v>
+        <v>10.96</v>
       </c>
       <c r="O26">
-        <v>893.8200000000001</v>
+        <v>952.35</v>
       </c>
       <c r="P26">
-        <v>11376</v>
+        <v>11978</v>
       </c>
       <c r="Q26">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>12.01</v>
+        <v>13.42</v>
       </c>
       <c r="S26">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2635,37 +2635,37 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>71020</v>
+        <v>63041</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
-        <v>59.81</v>
+        <v>60.05</v>
       </c>
       <c r="K27">
-        <v>37.79</v>
+        <v>33.55</v>
       </c>
       <c r="L27">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="M27">
-        <v>1187.43</v>
+        <v>1049.81</v>
       </c>
       <c r="N27">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O27">
-        <v>199.18</v>
+        <v>199.12</v>
       </c>
       <c r="P27">
-        <v>71020</v>
+        <v>63041</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0.88</v>
+        <v>1.01</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2694,37 +2694,37 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>60340</v>
+        <v>71503</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
-        <v>59.36</v>
+        <v>59.32</v>
       </c>
       <c r="K28">
-        <v>32.11</v>
+        <v>16.64</v>
       </c>
       <c r="L28">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="M28">
-        <v>1016.51</v>
+        <v>1205.38</v>
       </c>
       <c r="N28">
-        <v>0.54</v>
+        <v>0.28</v>
       </c>
       <c r="O28">
-        <v>199.34</v>
+        <v>199.3</v>
       </c>
       <c r="P28">
-        <v>60341</v>
+        <v>71460</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>1.27</v>
+        <v>23.01</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2753,37 +2753,37 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>71987</v>
+        <v>71848</v>
       </c>
       <c r="I29">
         <v>100</v>
       </c>
       <c r="J29">
-        <v>59.05</v>
+        <v>59.37</v>
       </c>
       <c r="K29">
-        <v>38.31</v>
+        <v>18.29</v>
       </c>
       <c r="L29">
         <v>0.16</v>
       </c>
       <c r="M29">
-        <v>1219.09</v>
+        <v>1210.17</v>
       </c>
       <c r="N29">
-        <v>0.65</v>
+        <v>0.31</v>
       </c>
       <c r="O29">
-        <v>199.38</v>
+        <v>199.33</v>
       </c>
       <c r="P29">
-        <v>71987</v>
+        <v>71848</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0.83</v>
+        <v>1.01</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2812,40 +2812,40 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>68403</v>
+        <v>111971</v>
       </c>
       <c r="I30">
         <v>100</v>
       </c>
       <c r="J30">
-        <v>59.2</v>
+        <v>59.91</v>
       </c>
       <c r="K30">
-        <v>36.4</v>
+        <v>28.51</v>
       </c>
       <c r="L30">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="M30">
-        <v>1155.46</v>
+        <v>1868.99</v>
       </c>
       <c r="N30">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="O30">
-        <v>199.35</v>
+        <v>199.65</v>
       </c>
       <c r="P30">
-        <v>68403</v>
+        <v>111971</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1.31</v>
+        <v>0.41</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2871,37 +2871,37 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>51586</v>
+        <v>121348</v>
       </c>
       <c r="I31">
         <v>100</v>
       </c>
       <c r="J31">
-        <v>59.2</v>
+        <v>59.93</v>
       </c>
       <c r="K31">
-        <v>11.52</v>
+        <v>30.9</v>
       </c>
       <c r="L31">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="M31">
-        <v>871.39</v>
+        <v>2024.83</v>
       </c>
       <c r="N31">
-        <v>0.19</v>
+        <v>0.52</v>
       </c>
       <c r="O31">
-        <v>199.24</v>
+        <v>199.68</v>
       </c>
       <c r="P31">
-        <v>51534</v>
+        <v>121348</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>15.5</v>
+        <v>0.53</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2930,37 +2930,37 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>64959</v>
+        <v>70101</v>
       </c>
       <c r="I32">
         <v>100</v>
       </c>
       <c r="J32">
-        <v>59.67</v>
+        <v>59.96</v>
       </c>
       <c r="K32">
-        <v>16.54</v>
+        <v>17.85</v>
       </c>
       <c r="L32">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="M32">
-        <v>1088.64</v>
+        <v>1169.13</v>
       </c>
       <c r="N32">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="O32">
-        <v>396.78</v>
+        <v>397.77</v>
       </c>
       <c r="P32">
-        <v>64959</v>
+        <v>70101</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.81</v>
+        <v>3.14</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2989,37 +2989,37 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <v>62758</v>
+        <v>71742</v>
       </c>
       <c r="I33">
         <v>100</v>
       </c>
       <c r="J33">
-        <v>59.08</v>
+        <v>59.41</v>
       </c>
       <c r="K33">
-        <v>15.98</v>
+        <v>18.27</v>
       </c>
       <c r="L33">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="M33">
-        <v>1062.25</v>
+        <v>1207.57</v>
       </c>
       <c r="N33">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="O33">
-        <v>397.68</v>
+        <v>397.01</v>
       </c>
       <c r="P33">
-        <v>62758</v>
+        <v>71742</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3048,40 +3048,40 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <v>69164</v>
+        <v>123387</v>
       </c>
       <c r="I34">
         <v>100</v>
       </c>
       <c r="J34">
-        <v>60.03</v>
+        <v>59.18</v>
       </c>
       <c r="K34">
-        <v>17.61</v>
+        <v>31.42</v>
       </c>
       <c r="L34">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="M34">
-        <v>1152.16</v>
+        <v>2084.94</v>
       </c>
       <c r="N34">
-        <v>0.29</v>
+        <v>0.53</v>
       </c>
       <c r="O34">
-        <v>397.76</v>
+        <v>399.03</v>
       </c>
       <c r="P34">
-        <v>69164</v>
+        <v>123387</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1.73</v>
+        <v>0.65</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3107,40 +3107,40 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>77309</v>
+        <v>109117</v>
       </c>
       <c r="I35">
         <v>100</v>
       </c>
       <c r="J35">
-        <v>59.11</v>
+        <v>59.92</v>
       </c>
       <c r="K35">
-        <v>19.69</v>
+        <v>27.78</v>
       </c>
       <c r="L35">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="M35">
-        <v>1307.88</v>
+        <v>1821.04</v>
       </c>
       <c r="N35">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="O35">
-        <v>398.18</v>
+        <v>398.94</v>
       </c>
       <c r="P35">
-        <v>77309</v>
+        <v>109117</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>1.71</v>
+        <v>0.93</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3166,37 +3166,37 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>65304</v>
+        <v>73490</v>
       </c>
       <c r="I36">
         <v>100</v>
       </c>
       <c r="J36">
-        <v>59.15</v>
+        <v>59.92</v>
       </c>
       <c r="K36">
-        <v>16.63</v>
+        <v>18.71</v>
       </c>
       <c r="L36">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="M36">
-        <v>1104.04</v>
+        <v>1226.47</v>
       </c>
       <c r="N36">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="O36">
-        <v>397.5</v>
+        <v>397.19</v>
       </c>
       <c r="P36">
-        <v>65304</v>
+        <v>73490</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>2.34</v>
+        <v>1.58</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3225,37 +3225,37 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>61842</v>
+        <v>121621</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37">
-        <v>59.21</v>
+        <v>59.18</v>
       </c>
       <c r="K37">
-        <v>15.75</v>
+        <v>30.97</v>
       </c>
       <c r="L37">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="M37">
-        <v>1044.45</v>
+        <v>2055.1</v>
       </c>
       <c r="N37">
-        <v>0.27</v>
+        <v>0.52</v>
       </c>
       <c r="O37">
-        <v>595.61</v>
+        <v>596.8099999999999</v>
       </c>
       <c r="P37">
-        <v>61842</v>
+        <v>121621</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>3.46</v>
+        <v>6.08</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -3284,37 +3284,37 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>74177</v>
+        <v>75097</v>
       </c>
       <c r="I38">
         <v>100</v>
       </c>
       <c r="J38">
-        <v>59.75</v>
+        <v>60.04</v>
       </c>
       <c r="K38">
-        <v>18.89</v>
+        <v>19.12</v>
       </c>
       <c r="L38">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="M38">
-        <v>1241.46</v>
+        <v>1250.78</v>
       </c>
       <c r="N38">
         <v>0.32</v>
       </c>
       <c r="O38">
-        <v>595.0700000000001</v>
+        <v>593.41</v>
       </c>
       <c r="P38">
-        <v>74177</v>
+        <v>75097</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>3.29</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3343,40 +3343,40 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>64635</v>
+        <v>99818</v>
       </c>
       <c r="I39">
         <v>100</v>
       </c>
       <c r="J39">
-        <v>59.21</v>
+        <v>59.24</v>
       </c>
       <c r="K39">
-        <v>16.46</v>
+        <v>25.42</v>
       </c>
       <c r="L39">
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="M39">
-        <v>1091.62</v>
+        <v>1684.98</v>
       </c>
       <c r="N39">
-        <v>0.28</v>
+        <v>0.43</v>
       </c>
       <c r="O39">
-        <v>593.5700000000001</v>
+        <v>596.88</v>
       </c>
       <c r="P39">
-        <v>64635</v>
+        <v>99818</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>3.38</v>
+        <v>5.16</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3402,37 +3402,37 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>71682</v>
+        <v>72295</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
       <c r="J40">
-        <v>60.07</v>
+        <v>59.93</v>
       </c>
       <c r="K40">
-        <v>18.25</v>
+        <v>18.41</v>
       </c>
       <c r="L40">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="M40">
-        <v>1193.31</v>
+        <v>1206.32</v>
       </c>
       <c r="N40">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="O40">
-        <v>594.38</v>
+        <v>594.77</v>
       </c>
       <c r="P40">
-        <v>71682</v>
+        <v>72295</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3461,40 +3461,40 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>65264</v>
+        <v>104344</v>
       </c>
       <c r="I41">
         <v>100</v>
       </c>
       <c r="J41">
-        <v>59.9</v>
+        <v>59.37</v>
       </c>
       <c r="K41">
-        <v>16.62</v>
+        <v>26.57</v>
       </c>
       <c r="L41">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="M41">
-        <v>1089.55</v>
+        <v>1757.52</v>
       </c>
       <c r="N41">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="O41">
-        <v>595.24</v>
+        <v>596.73</v>
       </c>
       <c r="P41">
-        <v>65264</v>
+        <v>104344</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>3.6</v>
+        <v>3.31</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3520,40 +3520,40 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>55512</v>
+        <v>98323</v>
       </c>
       <c r="I42">
         <v>100</v>
       </c>
       <c r="J42">
-        <v>59.2</v>
+        <v>59.84</v>
       </c>
       <c r="K42">
-        <v>14.14</v>
+        <v>25.04</v>
       </c>
       <c r="L42">
-        <v>0.84</v>
+        <v>0.48</v>
       </c>
       <c r="M42">
-        <v>937.7</v>
+        <v>1643.1</v>
       </c>
       <c r="N42">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="O42">
-        <v>791.25</v>
+        <v>793.66</v>
       </c>
       <c r="P42">
-        <v>55512</v>
+        <v>98323</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>7.43</v>
+        <v>5.22</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3579,37 +3579,37 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>61780</v>
+        <v>129816</v>
       </c>
       <c r="I43">
         <v>100</v>
       </c>
       <c r="J43">
-        <v>59.36</v>
+        <v>59.81</v>
       </c>
       <c r="K43">
-        <v>15.73</v>
+        <v>33.06</v>
       </c>
       <c r="L43">
-        <v>0.76</v>
+        <v>0.36</v>
       </c>
       <c r="M43">
-        <v>1040.77</v>
+        <v>2170.47</v>
       </c>
       <c r="N43">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="O43">
-        <v>787.42</v>
+        <v>791.96</v>
       </c>
       <c r="P43">
-        <v>61780</v>
+        <v>129816</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>2.88</v>
+        <v>4.23</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3638,37 +3638,37 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <v>65183</v>
+        <v>81380</v>
       </c>
       <c r="I44">
         <v>100</v>
       </c>
       <c r="J44">
-        <v>60.12</v>
+        <v>60.09</v>
       </c>
       <c r="K44">
-        <v>16.6</v>
+        <v>20.72</v>
       </c>
       <c r="L44">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="M44">
-        <v>1084.21</v>
+        <v>1354.3</v>
       </c>
       <c r="N44">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="O44">
-        <v>789.5599999999999</v>
+        <v>787.86</v>
       </c>
       <c r="P44">
-        <v>65183</v>
+        <v>81380</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>3.6</v>
+        <v>2.61</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -3697,40 +3697,40 @@
         <v>4</v>
       </c>
       <c r="H45">
-        <v>61611</v>
+        <v>106192</v>
       </c>
       <c r="I45">
         <v>100</v>
       </c>
       <c r="J45">
-        <v>59.33</v>
+        <v>59.9</v>
       </c>
       <c r="K45">
-        <v>15.69</v>
+        <v>27.04</v>
       </c>
       <c r="L45">
-        <v>0.76</v>
+        <v>0.45</v>
       </c>
       <c r="M45">
-        <v>1038.45</v>
+        <v>1772.82</v>
       </c>
       <c r="N45">
-        <v>0.26</v>
+        <v>0.45</v>
       </c>
       <c r="O45">
-        <v>790.01</v>
+        <v>794.6799999999999</v>
       </c>
       <c r="P45">
-        <v>61611</v>
+        <v>106192</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>7.44</v>
+        <v>4.54</v>
       </c>
       <c r="S45">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3756,37 +3756,37 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>67733</v>
+        <v>85292</v>
       </c>
       <c r="I46">
         <v>100</v>
       </c>
       <c r="J46">
-        <v>59.14</v>
+        <v>59.66</v>
       </c>
       <c r="K46">
-        <v>17.25</v>
+        <v>21.72</v>
       </c>
       <c r="L46">
-        <v>0.6899999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="M46">
-        <v>1145.3</v>
+        <v>1429.63</v>
       </c>
       <c r="N46">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="O46">
-        <v>791.05</v>
+        <v>790.21</v>
       </c>
       <c r="P46">
-        <v>67733</v>
+        <v>85293</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>3.03</v>
+        <v>3.87</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3815,40 +3815,40 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>61933</v>
+        <v>102840</v>
       </c>
       <c r="I47">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="J47">
-        <v>60.04</v>
+        <v>59.67</v>
       </c>
       <c r="K47">
-        <v>15.77</v>
+        <v>26.19</v>
       </c>
       <c r="L47">
-        <v>0.95</v>
+        <v>0.57</v>
       </c>
       <c r="M47">
-        <v>1031.53</v>
+        <v>1723.48</v>
       </c>
       <c r="N47">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="O47">
-        <v>984.8200000000001</v>
+        <v>990.6900000000001</v>
       </c>
       <c r="P47">
-        <v>61933</v>
+        <v>102840</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R47">
-        <v>3.53</v>
+        <v>5.87</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3874,37 +3874,37 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>79263</v>
+        <v>80242</v>
       </c>
       <c r="I48">
         <v>100</v>
       </c>
       <c r="J48">
-        <v>60.02</v>
+        <v>59.91</v>
       </c>
       <c r="K48">
-        <v>20.18</v>
+        <v>20.43</v>
       </c>
       <c r="L48">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="M48">
-        <v>1320.61</v>
+        <v>1339.38</v>
       </c>
       <c r="N48">
         <v>0.34</v>
       </c>
       <c r="O48">
-        <v>986.53</v>
+        <v>984.9400000000001</v>
       </c>
       <c r="P48">
-        <v>79264</v>
+        <v>80242</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>5.34</v>
+        <v>5.44</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -3933,37 +3933,37 @@
         <v>3</v>
       </c>
       <c r="H49">
-        <v>64920</v>
+        <v>67441</v>
       </c>
       <c r="I49">
         <v>100</v>
       </c>
       <c r="J49">
-        <v>60.06</v>
+        <v>59.95</v>
       </c>
       <c r="K49">
-        <v>16.53</v>
+        <v>17.17</v>
       </c>
       <c r="L49">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="M49">
-        <v>1080.92</v>
+        <v>1124.95</v>
       </c>
       <c r="N49">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="O49">
-        <v>987.52</v>
+        <v>981.84</v>
       </c>
       <c r="P49">
-        <v>64920</v>
+        <v>67442</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>7.99</v>
+        <v>3.62</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>61921</v>
+        <v>71968</v>
       </c>
       <c r="I50">
         <v>100</v>
@@ -4001,28 +4001,28 @@
         <v>60.14</v>
       </c>
       <c r="K50">
-        <v>15.77</v>
+        <v>18.33</v>
       </c>
       <c r="L50">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="M50">
-        <v>1029.61</v>
+        <v>1196.67</v>
       </c>
       <c r="N50">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="O50">
-        <v>985.55</v>
+        <v>983.37</v>
       </c>
       <c r="P50">
-        <v>61921</v>
+        <v>71968</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>7.61</v>
+        <v>4.01</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4051,37 +4051,37 @@
         <v>5</v>
       </c>
       <c r="H51">
-        <v>62262</v>
+        <v>111011</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
       <c r="J51">
-        <v>59.82</v>
+        <v>59.98</v>
       </c>
       <c r="K51">
-        <v>15.85</v>
+        <v>28.27</v>
       </c>
       <c r="L51">
-        <v>0.95</v>
+        <v>0.53</v>
       </c>
       <c r="M51">
-        <v>1040.82</v>
+        <v>1850.8</v>
       </c>
       <c r="N51">
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
       <c r="O51">
-        <v>987.7</v>
+        <v>983.1900000000001</v>
       </c>
       <c r="P51">
-        <v>62262</v>
+        <v>111012</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>7.81</v>
+        <v>5.27</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4110,37 +4110,37 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>46972</v>
+        <v>54907</v>
       </c>
       <c r="I52">
         <v>100</v>
       </c>
       <c r="J52">
-        <v>59.91</v>
+        <v>59.62</v>
       </c>
       <c r="K52">
-        <v>2.24</v>
+        <v>2.62</v>
       </c>
       <c r="L52">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="M52">
-        <v>784.04</v>
+        <v>920.95</v>
       </c>
       <c r="N52">
         <v>0.04</v>
       </c>
       <c r="O52">
-        <v>199.26</v>
+        <v>199.32</v>
       </c>
       <c r="P52">
-        <v>46972</v>
+        <v>54907</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1.66</v>
+        <v>3.8</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -4169,37 +4169,37 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>45285</v>
+        <v>52966</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
       <c r="J53">
-        <v>59.71</v>
+        <v>59.3</v>
       </c>
       <c r="K53">
-        <v>2.16</v>
+        <v>2.53</v>
       </c>
       <c r="L53">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="M53">
-        <v>758.42</v>
+        <v>893.1900000000001</v>
       </c>
       <c r="N53">
         <v>0.04</v>
       </c>
       <c r="O53">
-        <v>199.12</v>
+        <v>198.81</v>
       </c>
       <c r="P53">
-        <v>45285</v>
+        <v>52966</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -4228,40 +4228,40 @@
         <v>3</v>
       </c>
       <c r="H54">
-        <v>45348</v>
+        <v>51837</v>
       </c>
       <c r="I54">
         <v>100</v>
       </c>
       <c r="J54">
-        <v>59.52</v>
+        <v>59.44</v>
       </c>
       <c r="K54">
-        <v>2.16</v>
+        <v>2.47</v>
       </c>
       <c r="L54">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="M54">
-        <v>761.9</v>
+        <v>872.09</v>
       </c>
       <c r="N54">
         <v>0.04</v>
       </c>
       <c r="O54">
-        <v>199.43</v>
+        <v>199.03</v>
       </c>
       <c r="P54">
-        <v>45349</v>
+        <v>51837</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1.26</v>
+        <v>1.74</v>
       </c>
       <c r="S54">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4287,37 +4287,37 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>46063</v>
+        <v>54953</v>
       </c>
       <c r="I55">
         <v>100</v>
       </c>
       <c r="J55">
-        <v>59.84</v>
+        <v>59.7</v>
       </c>
       <c r="K55">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
       <c r="L55">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="M55">
-        <v>769.77</v>
+        <v>920.49</v>
       </c>
       <c r="N55">
         <v>0.04</v>
       </c>
       <c r="O55">
-        <v>199.25</v>
+        <v>199.24</v>
       </c>
       <c r="P55">
-        <v>46063</v>
+        <v>54953</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -4346,40 +4346,40 @@
         <v>5</v>
       </c>
       <c r="H56">
-        <v>46430</v>
+        <v>54023</v>
       </c>
       <c r="I56">
         <v>100</v>
       </c>
       <c r="J56">
-        <v>59.53</v>
+        <v>59.68</v>
       </c>
       <c r="K56">
-        <v>2.21</v>
+        <v>2.58</v>
       </c>
       <c r="L56">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="M56">
-        <v>779.9400000000001</v>
+        <v>905.21</v>
       </c>
       <c r="N56">
         <v>0.04</v>
       </c>
       <c r="O56">
-        <v>199.24</v>
+        <v>199.23</v>
       </c>
       <c r="P56">
-        <v>46430</v>
+        <v>54024</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="S56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4405,40 +4405,40 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>42702</v>
+        <v>51891</v>
       </c>
       <c r="I57">
         <v>100</v>
       </c>
       <c r="J57">
-        <v>59.62</v>
+        <v>59.82</v>
       </c>
       <c r="K57">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="L57">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="M57">
-        <v>716.24</v>
+        <v>867.45</v>
       </c>
       <c r="N57">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O57">
-        <v>397.21</v>
+        <v>395.92</v>
       </c>
       <c r="P57">
-        <v>42703</v>
+        <v>51891</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>3.12</v>
+        <v>2.87</v>
       </c>
       <c r="S57">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4464,37 +4464,37 @@
         <v>2</v>
       </c>
       <c r="H58">
-        <v>46623</v>
+        <v>51803</v>
       </c>
       <c r="I58">
         <v>100</v>
       </c>
       <c r="J58">
-        <v>59.55</v>
+        <v>59.51</v>
       </c>
       <c r="K58">
-        <v>2.22</v>
+        <v>2.47</v>
       </c>
       <c r="L58">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="M58">
-        <v>782.92</v>
+        <v>870.49</v>
       </c>
       <c r="N58">
         <v>0.04</v>
       </c>
       <c r="O58">
-        <v>396.26</v>
+        <v>397.5</v>
       </c>
       <c r="P58">
-        <v>46623</v>
+        <v>51803</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -4523,40 +4523,40 @@
         <v>3</v>
       </c>
       <c r="H59">
-        <v>47409</v>
+        <v>54163</v>
       </c>
       <c r="I59">
         <v>100</v>
       </c>
       <c r="J59">
-        <v>59.68</v>
+        <v>59.61</v>
       </c>
       <c r="K59">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="L59">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="M59">
-        <v>794.39</v>
+        <v>908.62</v>
       </c>
       <c r="N59">
         <v>0.04</v>
       </c>
       <c r="O59">
-        <v>397.9</v>
+        <v>397.06</v>
       </c>
       <c r="P59">
-        <v>47409</v>
+        <v>54163</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4582,37 +4582,37 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>44899</v>
+        <v>48835</v>
       </c>
       <c r="I60">
         <v>100</v>
       </c>
       <c r="J60">
-        <v>59.12</v>
+        <v>59.82</v>
       </c>
       <c r="K60">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="L60">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="M60">
-        <v>759.46</v>
+        <v>816.37</v>
       </c>
       <c r="N60">
         <v>0.04</v>
       </c>
       <c r="O60">
-        <v>397.45</v>
+        <v>396.46</v>
       </c>
       <c r="P60">
-        <v>44899</v>
+        <v>48835</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>3.31</v>
+        <v>3.98</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -4641,37 +4641,37 @@
         <v>5</v>
       </c>
       <c r="H61">
-        <v>46571</v>
+        <v>47934</v>
       </c>
       <c r="I61">
         <v>100</v>
       </c>
       <c r="J61">
-        <v>59.36</v>
+        <v>59.09</v>
       </c>
       <c r="K61">
-        <v>2.22</v>
+        <v>2.29</v>
       </c>
       <c r="L61">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="M61">
-        <v>784.55</v>
+        <v>811.2</v>
       </c>
       <c r="N61">
         <v>0.04</v>
       </c>
       <c r="O61">
-        <v>397.72</v>
+        <v>397.91</v>
       </c>
       <c r="P61">
-        <v>46571</v>
+        <v>47934</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>3.05</v>
+        <v>3.17</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -4700,31 +4700,31 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>44819</v>
+        <v>51708</v>
       </c>
       <c r="I62">
         <v>100</v>
       </c>
       <c r="J62">
-        <v>59.75</v>
+        <v>59.38</v>
       </c>
       <c r="K62">
-        <v>2.14</v>
+        <v>2.47</v>
       </c>
       <c r="L62">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
       <c r="M62">
-        <v>750.11</v>
+        <v>870.8</v>
       </c>
       <c r="N62">
         <v>0.04</v>
       </c>
       <c r="O62">
-        <v>594.15</v>
+        <v>594.27</v>
       </c>
       <c r="P62">
-        <v>44819</v>
+        <v>51709</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -4759,40 +4759,40 @@
         <v>2</v>
       </c>
       <c r="H63">
-        <v>41987</v>
+        <v>52514</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
       <c r="J63">
-        <v>59.03</v>
+        <v>59.3</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="M63">
-        <v>711.28</v>
+        <v>885.5599999999999</v>
       </c>
       <c r="N63">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O63">
-        <v>587.53</v>
+        <v>592.66</v>
       </c>
       <c r="P63">
-        <v>41987</v>
+        <v>52514</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63">
-        <v>4.53</v>
+        <v>4.24</v>
       </c>
       <c r="S63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4818,37 +4818,37 @@
         <v>3</v>
       </c>
       <c r="H64">
-        <v>43373</v>
+        <v>49339</v>
       </c>
       <c r="I64">
         <v>100</v>
       </c>
       <c r="J64">
-        <v>59.24</v>
+        <v>59.56</v>
       </c>
       <c r="K64">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="L64">
-        <v>0.8100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="M64">
-        <v>732.16</v>
+        <v>828.39</v>
       </c>
       <c r="N64">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O64">
-        <v>594.6900000000001</v>
+        <v>593.2</v>
       </c>
       <c r="P64">
-        <v>43373</v>
+        <v>49339</v>
       </c>
       <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64">
-        <v>4.32</v>
+        <v>4.19</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -4877,37 +4877,37 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>47170</v>
+        <v>50062</v>
       </c>
       <c r="I65">
         <v>100</v>
       </c>
       <c r="J65">
-        <v>59.93</v>
+        <v>59.45</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="L65">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="M65">
-        <v>787.08</v>
+        <v>842.09</v>
       </c>
       <c r="N65">
         <v>0.04</v>
       </c>
       <c r="O65">
-        <v>588.6799999999999</v>
+        <v>591.52</v>
       </c>
       <c r="P65">
-        <v>47170</v>
+        <v>50062</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>4.47</v>
+        <v>4.08</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -4936,37 +4936,37 @@
         <v>5</v>
       </c>
       <c r="H66">
-        <v>46311</v>
+        <v>51445</v>
       </c>
       <c r="I66">
         <v>100</v>
       </c>
       <c r="J66">
-        <v>59.67</v>
+        <v>59.99</v>
       </c>
       <c r="K66">
-        <v>2.21</v>
+        <v>2.45</v>
       </c>
       <c r="L66">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M66">
-        <v>776.12</v>
+        <v>857.5599999999999</v>
       </c>
       <c r="N66">
         <v>0.04</v>
       </c>
       <c r="O66">
-        <v>593.84</v>
+        <v>593.95</v>
       </c>
       <c r="P66">
-        <v>46311</v>
+        <v>51445</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
-        <v>4.53</v>
+        <v>4.74</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -4995,40 +4995,40 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>45531</v>
+        <v>49418</v>
       </c>
       <c r="I67">
         <v>100</v>
       </c>
       <c r="J67">
-        <v>59.86</v>
+        <v>59.61</v>
       </c>
       <c r="K67">
-        <v>2.17</v>
+        <v>2.36</v>
       </c>
       <c r="L67">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="M67">
-        <v>760.62</v>
+        <v>829.02</v>
       </c>
       <c r="N67">
         <v>0.04</v>
       </c>
       <c r="O67">
-        <v>786.08</v>
+        <v>789.8200000000001</v>
       </c>
       <c r="P67">
-        <v>45531</v>
+        <v>49418</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>6.57</v>
+        <v>4.3</v>
       </c>
       <c r="S67">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5054,37 +5054,37 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>46461</v>
+        <v>53458</v>
       </c>
       <c r="I68">
         <v>100</v>
       </c>
       <c r="J68">
-        <v>59.37</v>
+        <v>59.52</v>
       </c>
       <c r="K68">
-        <v>2.22</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="M68">
-        <v>782.5700000000001</v>
+        <v>898.15</v>
       </c>
       <c r="N68">
         <v>0.04</v>
       </c>
       <c r="O68">
-        <v>782.0599999999999</v>
+        <v>787.98</v>
       </c>
       <c r="P68">
-        <v>46461</v>
+        <v>53458</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>5.73</v>
+        <v>4.37</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -5113,40 +5113,40 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <v>45273</v>
+        <v>50281</v>
       </c>
       <c r="I69">
         <v>100</v>
       </c>
       <c r="J69">
-        <v>59.61</v>
+        <v>59.12</v>
       </c>
       <c r="K69">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="L69">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="M69">
-        <v>759.49</v>
+        <v>850.49</v>
       </c>
       <c r="N69">
         <v>0.04</v>
       </c>
       <c r="O69">
-        <v>788.5</v>
+        <v>786.74</v>
       </c>
       <c r="P69">
-        <v>45273</v>
+        <v>50281</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>6.13</v>
+        <v>4.62</v>
       </c>
       <c r="S69">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5172,40 +5172,40 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>42191</v>
+        <v>49372</v>
       </c>
       <c r="I70">
         <v>100</v>
       </c>
       <c r="J70">
-        <v>59.49</v>
+        <v>59.79</v>
       </c>
       <c r="K70">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="L70">
-        <v>1.11</v>
+        <v>0.96</v>
       </c>
       <c r="M70">
-        <v>709.21</v>
+        <v>825.76</v>
       </c>
       <c r="N70">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O70">
-        <v>790.4</v>
+        <v>790.63</v>
       </c>
       <c r="P70">
-        <v>42191</v>
+        <v>49372</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>7.18</v>
+        <v>5.85</v>
       </c>
       <c r="S70">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5231,37 +5231,37 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <v>45590</v>
+        <v>51064</v>
       </c>
       <c r="I71">
         <v>100</v>
       </c>
       <c r="J71">
-        <v>59.66</v>
+        <v>59.39</v>
       </c>
       <c r="K71">
-        <v>2.17</v>
+        <v>2.43</v>
       </c>
       <c r="L71">
-        <v>1.03</v>
+        <v>0.92</v>
       </c>
       <c r="M71">
-        <v>764.16</v>
+        <v>859.8099999999999</v>
       </c>
       <c r="N71">
         <v>0.04</v>
       </c>
       <c r="O71">
-        <v>788.2</v>
+        <v>788.67</v>
       </c>
       <c r="P71">
-        <v>45590</v>
+        <v>51064</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>7.12</v>
+        <v>5.6</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -5290,37 +5290,37 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>43310</v>
+        <v>51528</v>
       </c>
       <c r="I72">
         <v>100</v>
       </c>
       <c r="J72">
-        <v>59.59</v>
+        <v>59.56</v>
       </c>
       <c r="K72">
-        <v>2.07</v>
+        <v>2.46</v>
       </c>
       <c r="L72">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="M72">
-        <v>726.8</v>
+        <v>865.14</v>
       </c>
       <c r="N72">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O72">
-        <v>978.95</v>
+        <v>983.26</v>
       </c>
       <c r="P72">
-        <v>43310</v>
+        <v>51528</v>
       </c>
       <c r="Q72">
         <v>0</v>
       </c>
       <c r="R72">
-        <v>6.71</v>
+        <v>6.08</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -5349,37 +5349,37 @@
         <v>2</v>
       </c>
       <c r="H73">
-        <v>43345</v>
+        <v>45612</v>
       </c>
       <c r="I73">
         <v>100</v>
       </c>
       <c r="J73">
-        <v>59.55</v>
+        <v>59.54</v>
       </c>
       <c r="K73">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="L73">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M73">
-        <v>727.88</v>
+        <v>766.0700000000001</v>
       </c>
       <c r="N73">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O73">
-        <v>985.08</v>
+        <v>979.01</v>
       </c>
       <c r="P73">
-        <v>43345</v>
+        <v>45612</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73">
-        <v>7.21</v>
+        <v>6.79</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -5408,37 +5408,37 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>42430</v>
+        <v>50456</v>
       </c>
       <c r="I74">
         <v>100</v>
       </c>
       <c r="J74">
-        <v>59.24</v>
+        <v>60.06</v>
       </c>
       <c r="K74">
-        <v>2.02</v>
+        <v>2.41</v>
       </c>
       <c r="L74">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="M74">
-        <v>716.24</v>
+        <v>840.09</v>
       </c>
       <c r="N74">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O74">
-        <v>982.5</v>
+        <v>983.39</v>
       </c>
       <c r="P74">
-        <v>42430</v>
+        <v>50456</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>7.37</v>
+        <v>6.15</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -5467,40 +5467,40 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>44268</v>
+        <v>52130</v>
       </c>
       <c r="I75">
         <v>100</v>
       </c>
       <c r="J75">
-        <v>59.34</v>
+        <v>59.27</v>
       </c>
       <c r="K75">
-        <v>2.11</v>
+        <v>2.49</v>
       </c>
       <c r="L75">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="M75">
-        <v>746.01</v>
+        <v>879.53</v>
       </c>
       <c r="N75">
         <v>0.04</v>
       </c>
       <c r="O75">
-        <v>957.88</v>
+        <v>980.36</v>
       </c>
       <c r="P75">
-        <v>44268</v>
+        <v>52132</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
-        <v>8.02</v>
+        <v>4.25</v>
       </c>
       <c r="S75">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5526,37 +5526,37 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>42525</v>
+        <v>49202</v>
       </c>
       <c r="I76">
         <v>100</v>
       </c>
       <c r="J76">
-        <v>59.77</v>
+        <v>59.39</v>
       </c>
       <c r="K76">
-        <v>2.03</v>
+        <v>2.35</v>
       </c>
       <c r="L76">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="M76">
-        <v>711.48</v>
+        <v>828.46</v>
       </c>
       <c r="N76">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O76">
-        <v>984.23</v>
+        <v>964.4</v>
       </c>
       <c r="P76">
-        <v>42525</v>
+        <v>49202</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76">
-        <v>8.050000000000001</v>
+        <v>4.87</v>
       </c>
       <c r="S76">
         <v>0.01</v>
@@ -5585,37 +5585,37 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>47008</v>
+        <v>54182</v>
       </c>
       <c r="I77">
         <v>100</v>
       </c>
       <c r="J77">
-        <v>59.51</v>
+        <v>59.89</v>
       </c>
       <c r="K77">
-        <v>4.3</v>
+        <v>4.96</v>
       </c>
       <c r="L77">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="M77">
-        <v>789.92</v>
+        <v>904.6900000000001</v>
       </c>
       <c r="N77">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O77">
-        <v>199.22</v>
+        <v>199.25</v>
       </c>
       <c r="P77">
-        <v>47008</v>
+        <v>54182</v>
       </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77">
-        <v>6.04</v>
+        <v>3.38</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -5644,40 +5644,40 @@
         <v>2</v>
       </c>
       <c r="H78">
-        <v>48072</v>
+        <v>56670</v>
       </c>
       <c r="I78">
         <v>100</v>
       </c>
       <c r="J78">
-        <v>59.79</v>
+        <v>59.54</v>
       </c>
       <c r="K78">
-        <v>4.4</v>
+        <v>5.19</v>
       </c>
       <c r="L78">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="M78">
-        <v>804.01</v>
+        <v>951.8</v>
       </c>
       <c r="N78">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="O78">
-        <v>194.92</v>
+        <v>199.2</v>
       </c>
       <c r="P78">
-        <v>48072</v>
+        <v>56670</v>
       </c>
       <c r="Q78">
         <v>0</v>
       </c>
       <c r="R78">
-        <v>6.53</v>
+        <v>3.66</v>
       </c>
       <c r="S78">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -5703,37 +5703,37 @@
         <v>3</v>
       </c>
       <c r="H79">
-        <v>45533</v>
+        <v>54797</v>
       </c>
       <c r="I79">
         <v>100</v>
       </c>
       <c r="J79">
-        <v>59.53</v>
+        <v>59.31</v>
       </c>
       <c r="K79">
-        <v>4.17</v>
+        <v>5.02</v>
       </c>
       <c r="L79">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="M79">
-        <v>764.87</v>
+        <v>923.91</v>
       </c>
       <c r="N79">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O79">
-        <v>197.29</v>
+        <v>199.17</v>
       </c>
       <c r="P79">
-        <v>45533</v>
+        <v>54797</v>
       </c>
       <c r="Q79">
         <v>0</v>
       </c>
       <c r="R79">
-        <v>5.93</v>
+        <v>3.86</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -5762,37 +5762,37 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>49386</v>
+        <v>52391</v>
       </c>
       <c r="I80">
         <v>100</v>
       </c>
       <c r="J80">
-        <v>59.64</v>
+        <v>59.6</v>
       </c>
       <c r="K80">
-        <v>4.52</v>
+        <v>4.8</v>
       </c>
       <c r="L80">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="M80">
-        <v>828.0700000000001</v>
+        <v>879.04</v>
       </c>
       <c r="N80">
         <v>0.08</v>
       </c>
       <c r="O80">
-        <v>199.31</v>
+        <v>199.28</v>
       </c>
       <c r="P80">
-        <v>49386</v>
+        <v>52391</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>6.31</v>
+        <v>4.06</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -5821,37 +5821,37 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>48181</v>
+        <v>55435</v>
       </c>
       <c r="I81">
         <v>100</v>
       </c>
       <c r="J81">
-        <v>59.9</v>
+        <v>59.18</v>
       </c>
       <c r="K81">
-        <v>4.41</v>
+        <v>5.08</v>
       </c>
       <c r="L81">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="M81">
-        <v>804.36</v>
+        <v>936.72</v>
       </c>
       <c r="N81">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="O81">
-        <v>198.73</v>
+        <v>199.25</v>
       </c>
       <c r="P81">
-        <v>48181</v>
+        <v>55435</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
-        <v>6.69</v>
+        <v>3.89</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -5880,37 +5880,37 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>43894</v>
+        <v>58064</v>
       </c>
       <c r="I82">
         <v>100</v>
       </c>
       <c r="J82">
-        <v>59.65</v>
+        <v>59.43</v>
       </c>
       <c r="K82">
-        <v>4.02</v>
+        <v>5.32</v>
       </c>
       <c r="L82">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="M82">
-        <v>735.86</v>
+        <v>977.01</v>
       </c>
       <c r="N82">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="O82">
-        <v>390.77</v>
+        <v>397.56</v>
       </c>
       <c r="P82">
-        <v>43894</v>
+        <v>58064</v>
       </c>
       <c r="Q82">
         <v>0</v>
       </c>
       <c r="R82">
-        <v>7.55</v>
+        <v>4.71</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -5939,40 +5939,40 @@
         <v>2</v>
       </c>
       <c r="H83">
-        <v>44374</v>
+        <v>46889</v>
       </c>
       <c r="I83">
         <v>100</v>
       </c>
       <c r="J83">
-        <v>59.35</v>
+        <v>59.23</v>
       </c>
       <c r="K83">
-        <v>4.06</v>
+        <v>4.29</v>
       </c>
       <c r="L83">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="M83">
-        <v>747.67</v>
+        <v>791.64</v>
       </c>
       <c r="N83">
         <v>0.07000000000000001</v>
       </c>
       <c r="O83">
-        <v>397.56</v>
+        <v>396.82</v>
       </c>
       <c r="P83">
-        <v>44374</v>
+        <v>46889</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>7.36</v>
+        <v>4.94</v>
       </c>
       <c r="S83">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -5998,40 +5998,40 @@
         <v>3</v>
       </c>
       <c r="H84">
-        <v>46031</v>
+        <v>51088</v>
       </c>
       <c r="I84">
         <v>100</v>
       </c>
       <c r="J84">
-        <v>59.55</v>
+        <v>59.63</v>
       </c>
       <c r="K84">
-        <v>4.21</v>
+        <v>4.68</v>
       </c>
       <c r="L84">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="M84">
-        <v>772.98</v>
+        <v>856.75</v>
       </c>
       <c r="N84">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O84">
-        <v>386.87</v>
+        <v>397.31</v>
       </c>
       <c r="P84">
-        <v>46031</v>
+        <v>51089</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>6.34</v>
+        <v>4.06</v>
       </c>
       <c r="S84">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6057,40 +6057,40 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>45461</v>
+        <v>54610</v>
       </c>
       <c r="I85">
         <v>100</v>
       </c>
       <c r="J85">
-        <v>59.38</v>
+        <v>59.55</v>
       </c>
       <c r="K85">
-        <v>4.16</v>
+        <v>5</v>
       </c>
       <c r="L85">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="M85">
-        <v>765.59</v>
+        <v>917.04</v>
       </c>
       <c r="N85">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O85">
-        <v>397.16</v>
+        <v>396.92</v>
       </c>
       <c r="P85">
-        <v>45461</v>
+        <v>54610</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>7.09</v>
+        <v>5.32</v>
       </c>
       <c r="S85">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6116,40 +6116,40 @@
         <v>5</v>
       </c>
       <c r="H86">
-        <v>44971</v>
+        <v>47035</v>
       </c>
       <c r="I86">
         <v>100</v>
       </c>
       <c r="J86">
-        <v>59.45</v>
+        <v>59.86</v>
       </c>
       <c r="K86">
-        <v>4.12</v>
+        <v>4.31</v>
       </c>
       <c r="L86">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="M86">
-        <v>756.45</v>
+        <v>785.75</v>
       </c>
       <c r="N86">
         <v>0.07000000000000001</v>
       </c>
       <c r="O86">
-        <v>397.6</v>
+        <v>396.03</v>
       </c>
       <c r="P86">
-        <v>44971</v>
+        <v>47035</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86">
-        <v>6.42</v>
+        <v>4.99</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6175,37 +6175,37 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>43365</v>
+        <v>48875</v>
       </c>
       <c r="I87">
         <v>100</v>
       </c>
       <c r="J87">
-        <v>59.58</v>
+        <v>59.17</v>
       </c>
       <c r="K87">
-        <v>3.97</v>
+        <v>4.47</v>
       </c>
       <c r="L87">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="M87">
-        <v>727.84</v>
+        <v>826.01</v>
       </c>
       <c r="N87">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O87">
-        <v>584.1900000000001</v>
+        <v>594.41</v>
       </c>
       <c r="P87">
-        <v>43366</v>
+        <v>48875</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>7.38</v>
+        <v>6.07</v>
       </c>
       <c r="S87">
         <v>0.01</v>
@@ -6234,40 +6234,40 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>45991</v>
+        <v>49446</v>
       </c>
       <c r="I88">
         <v>100</v>
       </c>
       <c r="J88">
-        <v>59.87</v>
+        <v>59.55</v>
       </c>
       <c r="K88">
-        <v>4.21</v>
+        <v>4.53</v>
       </c>
       <c r="L88">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="M88">
-        <v>768.1799999999999</v>
+        <v>830.33</v>
       </c>
       <c r="N88">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O88">
-        <v>582.33</v>
+        <v>586.5700000000001</v>
       </c>
       <c r="P88">
-        <v>45991</v>
+        <v>49447</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>7.83</v>
+        <v>5.49</v>
       </c>
       <c r="S88">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6293,37 +6293,37 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <v>44693</v>
+        <v>51101</v>
       </c>
       <c r="I89">
         <v>100</v>
       </c>
       <c r="J89">
-        <v>59.8</v>
+        <v>59.26</v>
       </c>
       <c r="K89">
-        <v>4.09</v>
+        <v>4.68</v>
       </c>
       <c r="L89">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M89">
-        <v>747.37</v>
+        <v>862.3200000000001</v>
       </c>
       <c r="N89">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O89">
-        <v>594.35</v>
+        <v>594.91</v>
       </c>
       <c r="P89">
-        <v>44693</v>
+        <v>51101</v>
       </c>
       <c r="Q89">
         <v>0</v>
       </c>
       <c r="R89">
-        <v>8.44</v>
+        <v>6.51</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -6352,40 +6352,40 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>44722</v>
+        <v>51999</v>
       </c>
       <c r="I90">
         <v>100</v>
       </c>
       <c r="J90">
-        <v>59.72</v>
+        <v>59.82</v>
       </c>
       <c r="K90">
-        <v>4.09</v>
+        <v>4.76</v>
       </c>
       <c r="L90">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="M90">
-        <v>748.86</v>
+        <v>869.26</v>
       </c>
       <c r="N90">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O90">
-        <v>576.89</v>
+        <v>593.5599999999999</v>
       </c>
       <c r="P90">
-        <v>44722</v>
+        <v>51999</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
-        <v>7.67</v>
+        <v>5.55</v>
       </c>
       <c r="S90">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6411,37 +6411,37 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>45853</v>
+        <v>49737</v>
       </c>
       <c r="I91">
         <v>100</v>
       </c>
       <c r="J91">
-        <v>59.37</v>
+        <v>59.44</v>
       </c>
       <c r="K91">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="L91">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="M91">
-        <v>772.33</v>
+        <v>836.76</v>
       </c>
       <c r="N91">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O91">
-        <v>591.88</v>
+        <v>593.65</v>
       </c>
       <c r="P91">
-        <v>45853</v>
+        <v>49737</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>8.08</v>
+        <v>6.36</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -6470,37 +6470,37 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>45087</v>
+        <v>49442</v>
       </c>
       <c r="I92">
         <v>100</v>
       </c>
       <c r="J92">
-        <v>59.74</v>
+        <v>60.25</v>
       </c>
       <c r="K92">
-        <v>4.13</v>
+        <v>4.53</v>
       </c>
       <c r="L92">
-        <v>1.05</v>
+        <v>0.96</v>
       </c>
       <c r="M92">
-        <v>754.72</v>
+        <v>820.61</v>
       </c>
       <c r="N92">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O92">
-        <v>790.24</v>
+        <v>790.45</v>
       </c>
       <c r="P92">
-        <v>45087</v>
+        <v>49442</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>9.34</v>
+        <v>7.95</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -6529,40 +6529,40 @@
         <v>2</v>
       </c>
       <c r="H93">
-        <v>45113</v>
+        <v>50172</v>
       </c>
       <c r="I93">
         <v>100</v>
       </c>
       <c r="J93">
-        <v>59.54</v>
+        <v>59.34</v>
       </c>
       <c r="K93">
-        <v>4.13</v>
+        <v>4.59</v>
       </c>
       <c r="L93">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
       <c r="M93">
-        <v>757.6900000000001</v>
+        <v>845.5</v>
       </c>
       <c r="N93">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O93">
-        <v>773.67</v>
+        <v>785.02</v>
       </c>
       <c r="P93">
-        <v>45113</v>
+        <v>50172</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>9.32</v>
+        <v>5.2</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6588,37 +6588,37 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>45641</v>
+        <v>50150</v>
       </c>
       <c r="I94">
         <v>100</v>
       </c>
       <c r="J94">
-        <v>60.01</v>
+        <v>59.29</v>
       </c>
       <c r="K94">
-        <v>4.18</v>
+        <v>4.59</v>
       </c>
       <c r="L94">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
       <c r="M94">
-        <v>760.5599999999999</v>
+        <v>845.84</v>
       </c>
       <c r="N94">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O94">
-        <v>779.26</v>
+        <v>788.5700000000001</v>
       </c>
       <c r="P94">
-        <v>45641</v>
+        <v>50150</v>
       </c>
       <c r="Q94">
         <v>0</v>
       </c>
       <c r="R94">
-        <v>10.27</v>
+        <v>5.44</v>
       </c>
       <c r="S94">
         <v>0</v>
@@ -6647,37 +6647,37 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>40814</v>
+        <v>52436</v>
       </c>
       <c r="I95">
         <v>100</v>
       </c>
       <c r="J95">
-        <v>59.53</v>
+        <v>59.74</v>
       </c>
       <c r="K95">
-        <v>3.74</v>
+        <v>4.8</v>
       </c>
       <c r="L95">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="M95">
-        <v>685.6</v>
+        <v>877.74</v>
       </c>
       <c r="N95">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="O95">
-        <v>776.6</v>
+        <v>791.95</v>
       </c>
       <c r="P95">
-        <v>40814</v>
+        <v>52436</v>
       </c>
       <c r="Q95">
         <v>0</v>
       </c>
       <c r="R95">
-        <v>10.01</v>
+        <v>5.3</v>
       </c>
       <c r="S95">
         <v>0</v>
@@ -6706,40 +6706,40 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>44223</v>
+        <v>51439</v>
       </c>
       <c r="I96">
         <v>100</v>
       </c>
       <c r="J96">
-        <v>59.68</v>
+        <v>59.93</v>
       </c>
       <c r="K96">
-        <v>4.05</v>
+        <v>4.71</v>
       </c>
       <c r="L96">
-        <v>1.07</v>
+        <v>0.91</v>
       </c>
       <c r="M96">
-        <v>741</v>
+        <v>858.3200000000001</v>
       </c>
       <c r="N96">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O96">
-        <v>789.77</v>
+        <v>780.7</v>
       </c>
       <c r="P96">
-        <v>44223</v>
+        <v>51440</v>
       </c>
       <c r="Q96">
         <v>0</v>
       </c>
       <c r="R96">
-        <v>9.720000000000001</v>
+        <v>4.16</v>
       </c>
       <c r="S96">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -6765,40 +6765,40 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>43560</v>
+        <v>50558</v>
       </c>
       <c r="I97">
         <v>100</v>
       </c>
       <c r="J97">
-        <v>59.68</v>
+        <v>59.59</v>
       </c>
       <c r="K97">
-        <v>3.99</v>
+        <v>4.63</v>
       </c>
       <c r="L97">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="M97">
-        <v>729.89</v>
+        <v>848.4299999999999</v>
       </c>
       <c r="N97">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O97">
-        <v>961.23</v>
+        <v>981.36</v>
       </c>
       <c r="P97">
-        <v>43560</v>
+        <v>50558</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>11.26</v>
+        <v>4.98</v>
       </c>
       <c r="S97">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6824,40 +6824,40 @@
         <v>2</v>
       </c>
       <c r="H98">
-        <v>45775</v>
+        <v>52051</v>
       </c>
       <c r="I98">
         <v>100</v>
       </c>
       <c r="J98">
-        <v>59.74</v>
+        <v>59.41</v>
       </c>
       <c r="K98">
-        <v>4.19</v>
+        <v>4.77</v>
       </c>
       <c r="L98">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="M98">
-        <v>766.24</v>
+        <v>876.13</v>
       </c>
       <c r="N98">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O98">
-        <v>986.15</v>
+        <v>980.08</v>
       </c>
       <c r="P98">
-        <v>45776</v>
+        <v>52051</v>
       </c>
       <c r="Q98">
         <v>0</v>
       </c>
       <c r="R98">
-        <v>10.5</v>
+        <v>4.88</v>
       </c>
       <c r="S98">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -6883,40 +6883,40 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>45520</v>
+        <v>50810</v>
       </c>
       <c r="I99">
         <v>100</v>
       </c>
       <c r="J99">
-        <v>59.48</v>
+        <v>59.42</v>
       </c>
       <c r="K99">
-        <v>4.17</v>
+        <v>4.65</v>
       </c>
       <c r="L99">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="M99">
-        <v>765.3</v>
+        <v>855.1</v>
       </c>
       <c r="N99">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O99">
-        <v>980.29</v>
+        <v>984.23</v>
       </c>
       <c r="P99">
-        <v>45520</v>
+        <v>50810</v>
       </c>
       <c r="Q99">
         <v>0</v>
       </c>
       <c r="R99">
-        <v>10.98</v>
+        <v>4.91</v>
       </c>
       <c r="S99">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -6942,37 +6942,37 @@
         <v>4</v>
       </c>
       <c r="H100">
-        <v>45512</v>
+        <v>49476</v>
       </c>
       <c r="I100">
         <v>100</v>
       </c>
       <c r="J100">
-        <v>59.74</v>
+        <v>59.9</v>
       </c>
       <c r="K100">
-        <v>4.17</v>
+        <v>4.53</v>
       </c>
       <c r="L100">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M100">
-        <v>761.83</v>
+        <v>825.98</v>
       </c>
       <c r="N100">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O100">
-        <v>951.33</v>
+        <v>986.05</v>
       </c>
       <c r="P100">
-        <v>45512</v>
+        <v>49477</v>
       </c>
       <c r="Q100">
         <v>0</v>
       </c>
       <c r="R100">
-        <v>10.48</v>
+        <v>4.63</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -7001,40 +7001,40 @@
         <v>5</v>
       </c>
       <c r="H101">
-        <v>45043</v>
+        <v>48778</v>
       </c>
       <c r="I101">
         <v>100</v>
       </c>
       <c r="J101">
-        <v>59.68</v>
+        <v>59.18</v>
       </c>
       <c r="K101">
-        <v>4.12</v>
+        <v>4.47</v>
       </c>
       <c r="L101">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="M101">
-        <v>754.74</v>
+        <v>824.23</v>
       </c>
       <c r="N101">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O101">
-        <v>974.01</v>
+        <v>982.02</v>
       </c>
       <c r="P101">
-        <v>45043</v>
+        <v>48780</v>
       </c>
       <c r="Q101">
         <v>0</v>
       </c>
       <c r="R101">
-        <v>12.23</v>
+        <v>5.12</v>
       </c>
       <c r="S101">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7053,7 +7053,9 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="7" width="19.7109375" customWidth="1"/>
+    <col min="4" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
@@ -7125,40 +7127,40 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>11697.8</v>
+        <v>11894.4</v>
       </c>
       <c r="F2">
-        <v>97.61800000000001</v>
+        <v>98.02799999999999</v>
       </c>
       <c r="G2">
-        <v>59.748</v>
+        <v>59.452</v>
       </c>
       <c r="H2">
-        <v>632.75</v>
+        <v>643.386</v>
       </c>
       <c r="I2">
-        <v>4.68</v>
+        <v>4.592000000000001</v>
       </c>
       <c r="J2">
-        <v>195.788</v>
+        <v>200.04</v>
       </c>
       <c r="K2">
-        <v>10.59</v>
+        <v>10.82</v>
       </c>
       <c r="L2">
-        <v>916.2059999999999</v>
+        <v>917.5540000000001</v>
       </c>
       <c r="M2">
-        <v>11697.8</v>
+        <v>11894.4</v>
       </c>
       <c r="N2">
-        <v>284.6</v>
+        <v>237.2</v>
       </c>
       <c r="O2">
-        <v>13.63</v>
+        <v>15.134</v>
       </c>
       <c r="P2">
-        <v>0.046</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -7171,40 +7173,40 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>12401</v>
+        <v>12704</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <v>59.58</v>
+        <v>59.616</v>
       </c>
       <c r="H3">
-        <v>670.788</v>
+        <v>687.178</v>
       </c>
       <c r="I3">
-        <v>0.952</v>
+        <v>0.9279999999999999</v>
       </c>
       <c r="J3">
-        <v>208.138</v>
+        <v>213.084</v>
       </c>
       <c r="K3">
-        <v>11.258</v>
+        <v>11.526</v>
       </c>
       <c r="L3">
-        <v>197.988</v>
+        <v>197.884</v>
       </c>
       <c r="M3">
-        <v>12401</v>
+        <v>12704</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.868</v>
+        <v>3.464</v>
       </c>
       <c r="P3">
-        <v>0.022</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7217,37 +7219,37 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>12356</v>
+        <v>12756.8</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>59.57000000000001</v>
+        <v>59.53400000000001</v>
       </c>
       <c r="H4">
-        <v>668.3520000000001</v>
+        <v>690.034</v>
       </c>
       <c r="I4">
-        <v>1.888</v>
+        <v>1.83</v>
       </c>
       <c r="J4">
-        <v>207.418</v>
+        <v>214.268</v>
       </c>
       <c r="K4">
-        <v>11.22</v>
+        <v>11.59</v>
       </c>
       <c r="L4">
-        <v>391.144</v>
+        <v>391.854</v>
       </c>
       <c r="M4">
-        <v>12356</v>
+        <v>12756.8</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.822</v>
+        <v>6.51</v>
       </c>
       <c r="P4">
         <v>0.03</v>
@@ -7263,37 +7265,37 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>11954</v>
+        <v>12503.8</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>59.54600000000001</v>
+        <v>59.50600000000001</v>
       </c>
       <c r="H5">
-        <v>646.6079999999999</v>
+        <v>676.35</v>
       </c>
       <c r="I5">
-        <v>2.894</v>
+        <v>2.766</v>
       </c>
       <c r="J5">
-        <v>200.752</v>
+        <v>210.128</v>
       </c>
       <c r="K5">
-        <v>10.858</v>
+        <v>11.366</v>
       </c>
       <c r="L5">
-        <v>581.0600000000001</v>
+        <v>581.3140000000001</v>
       </c>
       <c r="M5">
-        <v>11954</v>
+        <v>12503.8</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.756</v>
+        <v>9.964</v>
       </c>
       <c r="P5">
         <v>0.036</v>
@@ -7309,40 +7311,40 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>12134.4</v>
+        <v>12268.8</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>99.524</v>
       </c>
       <c r="G6">
-        <v>59.496</v>
+        <v>59.15599999999999</v>
       </c>
       <c r="H6">
-        <v>656.366</v>
+        <v>663.6479999999999</v>
       </c>
       <c r="I6">
-        <v>3.772</v>
+        <v>3.665999999999999</v>
       </c>
       <c r="J6">
-        <v>203.946</v>
+        <v>207.398</v>
       </c>
       <c r="K6">
-        <v>11.03</v>
+        <v>11.216</v>
       </c>
       <c r="L6">
-        <v>769.312</v>
+        <v>760.484</v>
       </c>
       <c r="M6">
-        <v>12134.4</v>
+        <v>12269</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O6">
-        <v>10.312</v>
+        <v>12.718</v>
       </c>
       <c r="P6">
-        <v>0.1</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7357,40 +7359,40 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>66059.8</v>
+        <v>86700.39999999999</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>99.998</v>
       </c>
       <c r="G7">
-        <v>60.016</v>
+        <v>59.92999999999999</v>
       </c>
       <c r="H7">
-        <v>16.82</v>
+        <v>22.078</v>
       </c>
       <c r="I7">
-        <v>0.9039999999999999</v>
+        <v>0.706</v>
       </c>
       <c r="J7">
-        <v>1100.698</v>
+        <v>1447.056</v>
       </c>
       <c r="K7">
-        <v>0.282</v>
+        <v>0.368</v>
       </c>
       <c r="L7">
-        <v>986.424</v>
+        <v>984.8060000000002</v>
       </c>
       <c r="M7">
-        <v>66060</v>
+        <v>86700.8</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O7">
-        <v>6.456</v>
+        <v>4.842000000000001</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7403,40 +7405,40 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>64667.2</v>
+        <v>87942.2</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8">
-        <v>59.324</v>
+        <v>59.71599999999999</v>
       </c>
       <c r="H8">
-        <v>31.226</v>
+        <v>25.578</v>
       </c>
       <c r="I8">
-        <v>0.186</v>
+        <v>0.146</v>
       </c>
       <c r="J8">
-        <v>1089.976</v>
+        <v>1471.836</v>
       </c>
       <c r="K8">
-        <v>0.524</v>
+        <v>0.43</v>
       </c>
       <c r="L8">
-        <v>199.298</v>
+        <v>199.416</v>
       </c>
       <c r="M8">
-        <v>64657</v>
+        <v>87933.60000000001</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.958</v>
+        <v>5.194000000000001</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7449,40 +7451,40 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>67898.8</v>
+        <v>89567.39999999999</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9">
-        <v>59.408</v>
+        <v>59.678</v>
       </c>
       <c r="H9">
-        <v>17.29</v>
+        <v>22.806</v>
       </c>
       <c r="I9">
-        <v>0.348</v>
+        <v>0.28</v>
       </c>
       <c r="J9">
-        <v>1142.994</v>
+        <v>1501.83</v>
       </c>
       <c r="K9">
-        <v>0.29</v>
+        <v>0.382</v>
       </c>
       <c r="L9">
-        <v>397.58</v>
+        <v>397.988</v>
       </c>
       <c r="M9">
-        <v>67898.8</v>
+        <v>89567.39999999999</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.834</v>
+        <v>1.54</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7495,40 +7497,40 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>67520</v>
+        <v>94635</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10">
-        <v>59.628</v>
+        <v>59.552</v>
       </c>
       <c r="H10">
-        <v>17.194</v>
+        <v>24.098</v>
       </c>
       <c r="I10">
-        <v>0.528</v>
+        <v>0.388</v>
       </c>
       <c r="J10">
-        <v>1132.078</v>
+        <v>1590.94</v>
       </c>
       <c r="K10">
-        <v>0.29</v>
+        <v>0.406</v>
       </c>
       <c r="L10">
-        <v>594.774</v>
+        <v>595.72</v>
       </c>
       <c r="M10">
-        <v>67520</v>
+        <v>94635</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.364</v>
+        <v>3.918</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7541,40 +7543,40 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>62363.8</v>
+        <v>100200.6</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11">
-        <v>59.42999999999999</v>
+        <v>59.86</v>
       </c>
       <c r="H11">
-        <v>15.882</v>
+        <v>25.516</v>
       </c>
       <c r="I11">
-        <v>0.756</v>
+        <v>0.484</v>
       </c>
       <c r="J11">
-        <v>1049.286</v>
+        <v>1674.064</v>
       </c>
       <c r="K11">
-        <v>0.268</v>
+        <v>0.424</v>
       </c>
       <c r="L11">
-        <v>789.8579999999999</v>
+        <v>791.674</v>
       </c>
       <c r="M11">
-        <v>62363.8</v>
+        <v>100200.8</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.875999999999999</v>
+        <v>4.093999999999999</v>
       </c>
       <c r="P11">
-        <v>0.002</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7589,40 +7591,40 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>45082</v>
+        <v>50334.6</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
       <c r="G12">
-        <v>59.664</v>
+        <v>59.5</v>
       </c>
       <c r="H12">
-        <v>4.128</v>
+        <v>4.61</v>
       </c>
       <c r="I12">
-        <v>1.286</v>
+        <v>1.162</v>
       </c>
       <c r="J12">
-        <v>755.6</v>
+        <v>845.9739999999999</v>
       </c>
       <c r="K12">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="L12">
-        <v>970.6020000000001</v>
+        <v>982.7479999999999</v>
       </c>
       <c r="M12">
-        <v>45082.2</v>
+        <v>50335.2</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.09</v>
+        <v>4.904</v>
       </c>
       <c r="P12">
-        <v>0.008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7635,40 +7637,40 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>47636</v>
+        <v>54695</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13">
-        <v>59.674</v>
+        <v>59.504</v>
       </c>
       <c r="H13">
-        <v>4.36</v>
+        <v>5.01</v>
       </c>
       <c r="I13">
-        <v>0.248</v>
+        <v>0.218</v>
       </c>
       <c r="J13">
-        <v>798.246</v>
+        <v>919.232</v>
       </c>
       <c r="K13">
-        <v>0.07200000000000001</v>
+        <v>0.08399999999999999</v>
       </c>
       <c r="L13">
-        <v>197.894</v>
+        <v>199.23</v>
       </c>
       <c r="M13">
-        <v>47636</v>
+        <v>54695</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.3</v>
+        <v>3.77</v>
       </c>
       <c r="P13">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7681,40 +7683,40 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>44946.2</v>
+        <v>51537.2</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14">
-        <v>59.476</v>
+        <v>59.54</v>
       </c>
       <c r="H14">
-        <v>4.114</v>
+        <v>4.720000000000001</v>
       </c>
       <c r="I14">
-        <v>0.522</v>
+        <v>0.46</v>
       </c>
       <c r="J14">
-        <v>755.71</v>
+        <v>865.6379999999999</v>
       </c>
       <c r="K14">
-        <v>0.07000000000000001</v>
+        <v>0.078</v>
       </c>
       <c r="L14">
-        <v>393.992</v>
+        <v>396.928</v>
       </c>
       <c r="M14">
-        <v>44946.2</v>
+        <v>51537.4</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.952</v>
+        <v>4.804</v>
       </c>
       <c r="P14">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7727,40 +7729,40 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>44924.8</v>
+        <v>50231.6</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
       <c r="G15">
-        <v>59.66799999999999</v>
+        <v>59.448</v>
       </c>
       <c r="H15">
-        <v>4.112</v>
+        <v>4.598</v>
       </c>
       <c r="I15">
-        <v>0.78</v>
+        <v>0.702</v>
       </c>
       <c r="J15">
-        <v>752.9159999999999</v>
+        <v>844.936</v>
       </c>
       <c r="K15">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="L15">
-        <v>585.9280000000001</v>
+        <v>592.62</v>
       </c>
       <c r="M15">
-        <v>44925</v>
+        <v>50231.8</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.88</v>
+        <v>5.996</v>
       </c>
       <c r="P15">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7773,37 +7775,37 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>44175.6</v>
+        <v>50727.8</v>
       </c>
       <c r="F16">
         <v>100</v>
       </c>
       <c r="G16">
-        <v>59.7</v>
+        <v>59.71</v>
       </c>
       <c r="H16">
-        <v>4.046</v>
+        <v>4.644</v>
       </c>
       <c r="I16">
-        <v>1.058</v>
+        <v>0.9259999999999999</v>
       </c>
       <c r="J16">
-        <v>739.914</v>
+        <v>849.6020000000001</v>
       </c>
       <c r="K16">
-        <v>0.068</v>
+        <v>0.08</v>
       </c>
       <c r="L16">
-        <v>781.908</v>
+        <v>787.338</v>
       </c>
       <c r="M16">
-        <v>44175.6</v>
+        <v>50728</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.731999999999999</v>
+        <v>5.61</v>
       </c>
       <c r="P16">
         <v>0.002</v>
@@ -7821,40 +7823,40 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>43175.6</v>
+        <v>49785.6</v>
       </c>
       <c r="F17">
         <v>100</v>
       </c>
       <c r="G17">
-        <v>59.498</v>
+        <v>59.564</v>
       </c>
       <c r="H17">
-        <v>2.06</v>
+        <v>2.376</v>
       </c>
       <c r="I17">
-        <v>1.346</v>
+        <v>1.172</v>
       </c>
       <c r="J17">
-        <v>725.682</v>
+        <v>835.8579999999999</v>
       </c>
       <c r="K17">
-        <v>0.032</v>
+        <v>0.04</v>
       </c>
       <c r="L17">
-        <v>977.7280000000001</v>
+        <v>978.0840000000001</v>
       </c>
       <c r="M17">
-        <v>43175.6</v>
+        <v>49786</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.472</v>
+        <v>5.628</v>
       </c>
       <c r="P17">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -7867,40 +7869,40 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>46019.6</v>
+        <v>53737.2</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
       <c r="G18">
-        <v>59.702</v>
+        <v>59.548</v>
       </c>
       <c r="H18">
-        <v>2.194</v>
+        <v>2.564</v>
       </c>
       <c r="I18">
-        <v>0.258</v>
+        <v>0.222</v>
       </c>
       <c r="J18">
-        <v>770.814</v>
+        <v>902.3860000000001</v>
       </c>
       <c r="K18">
         <v>0.04</v>
       </c>
       <c r="L18">
-        <v>199.26</v>
+        <v>199.126</v>
       </c>
       <c r="M18">
-        <v>46019.8</v>
+        <v>53737.4</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.494</v>
+        <v>2.004</v>
       </c>
       <c r="P18">
-        <v>0.004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -7913,37 +7915,37 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>45640.8</v>
+        <v>50925.2</v>
       </c>
       <c r="F19">
         <v>100</v>
       </c>
       <c r="G19">
-        <v>59.46599999999999</v>
+        <v>59.57000000000001</v>
       </c>
       <c r="H19">
-        <v>2.176</v>
+        <v>2.428</v>
       </c>
       <c r="I19">
-        <v>0.518</v>
+        <v>0.468</v>
       </c>
       <c r="J19">
-        <v>767.5119999999999</v>
+        <v>854.826</v>
       </c>
       <c r="K19">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="L19">
-        <v>397.308</v>
+        <v>396.97</v>
       </c>
       <c r="M19">
-        <v>45641</v>
+        <v>50925.2</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.07</v>
+        <v>3.224</v>
       </c>
       <c r="P19">
         <v>0.002</v>
@@ -7959,40 +7961,40 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>44732</v>
+        <v>51013.6</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
       <c r="G20">
-        <v>59.524</v>
+        <v>59.536</v>
       </c>
       <c r="H20">
-        <v>2.134</v>
+        <v>2.432</v>
       </c>
       <c r="I20">
-        <v>0.79</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="J20">
-        <v>751.35</v>
+        <v>856.8799999999999</v>
       </c>
       <c r="K20">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
       <c r="L20">
-        <v>591.778</v>
+        <v>593.12</v>
       </c>
       <c r="M20">
-        <v>44732</v>
+        <v>51013.8</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.508</v>
+        <v>4.388</v>
       </c>
       <c r="P20">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -8005,40 +8007,40 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>45009.2</v>
+        <v>50718.6</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
       <c r="G21">
-        <v>59.598</v>
+        <v>59.486</v>
       </c>
       <c r="H21">
-        <v>2.146</v>
+        <v>2.418</v>
       </c>
       <c r="I21">
-        <v>1.042</v>
+        <v>0.9279999999999999</v>
       </c>
       <c r="J21">
-        <v>755.21</v>
+        <v>852.646</v>
       </c>
       <c r="K21">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="L21">
-        <v>787.048</v>
+        <v>788.768</v>
       </c>
       <c r="M21">
-        <v>45009.2</v>
+        <v>50718.6</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.546000000000001</v>
+        <v>4.948</v>
       </c>
       <c r="P21">
-        <v>0.006</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8062,12 +8064,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
@@ -8131,40 +8135,40 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12108.64</v>
+        <v>12425.56</v>
       </c>
       <c r="E2">
-        <v>99.5236</v>
+        <v>99.5104</v>
       </c>
       <c r="F2">
-        <v>59.588</v>
+        <v>59.4528</v>
       </c>
       <c r="G2">
-        <v>654.9728</v>
+        <v>672.1192</v>
       </c>
       <c r="H2">
-        <v>2.8372</v>
+        <v>2.7564</v>
       </c>
       <c r="I2">
-        <v>203.2084</v>
+        <v>208.9836</v>
       </c>
       <c r="J2">
-        <v>10.9912</v>
+        <v>11.3036</v>
       </c>
       <c r="K2">
-        <v>571.1419999999999</v>
+        <v>569.818</v>
       </c>
       <c r="L2">
-        <v>12108.64</v>
+        <v>12425.6</v>
       </c>
       <c r="M2">
-        <v>56.92</v>
+        <v>59.04</v>
       </c>
       <c r="N2">
-        <v>8.0776</v>
+        <v>9.558</v>
       </c>
       <c r="O2">
-        <v>0.04679999999999999</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -8176,40 +8180,40 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>65701.92</v>
+        <v>91809.12</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>99.99959999999999</v>
       </c>
       <c r="F3">
-        <v>59.5612</v>
+        <v>59.7472</v>
       </c>
       <c r="G3">
-        <v>19.6824</v>
+        <v>24.0152</v>
       </c>
       <c r="H3">
-        <v>0.5444</v>
+        <v>0.4008</v>
       </c>
       <c r="I3">
-        <v>1103.0064</v>
+        <v>1537.1452</v>
       </c>
       <c r="J3">
-        <v>0.3308</v>
+        <v>0.402</v>
       </c>
       <c r="K3">
-        <v>593.5868</v>
+        <v>593.9208</v>
       </c>
       <c r="L3">
-        <v>65699.92</v>
+        <v>91807.52</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="N3">
-        <v>4.0976</v>
+        <v>3.9176</v>
       </c>
       <c r="O3">
-        <v>0.0004</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -8221,40 +8225,40 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>45352.92</v>
+        <v>51505.24</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
-        <v>59.6364</v>
+        <v>59.5404</v>
       </c>
       <c r="G4">
-        <v>4.152</v>
+        <v>4.7164</v>
       </c>
       <c r="H4">
-        <v>0.7787999999999999</v>
+        <v>0.6936</v>
       </c>
       <c r="I4">
-        <v>760.4772</v>
+        <v>865.0764</v>
       </c>
       <c r="J4">
-        <v>0.07000000000000001</v>
+        <v>0.08040000000000001</v>
       </c>
       <c r="K4">
-        <v>586.0648</v>
+        <v>591.7728</v>
       </c>
       <c r="L4">
-        <v>45353</v>
+        <v>51505.48</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.3908</v>
+        <v>5.0168</v>
       </c>
       <c r="O4">
-        <v>0.0052</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -8266,40 +8270,40 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>44915.44</v>
+        <v>51236.04</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>59.5576</v>
+        <v>59.5408</v>
       </c>
       <c r="G5">
-        <v>2.142</v>
+        <v>2.4436</v>
       </c>
       <c r="H5">
-        <v>0.7907999999999999</v>
+        <v>0.6964</v>
       </c>
       <c r="I5">
-        <v>754.1136</v>
+        <v>860.5192</v>
       </c>
       <c r="J5">
-        <v>0.0368</v>
+        <v>0.04</v>
       </c>
       <c r="K5">
-        <v>590.6244</v>
+        <v>591.2136</v>
       </c>
       <c r="L5">
-        <v>44915.52</v>
+        <v>51236.2</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.618</v>
+        <v>4.0384</v>
       </c>
       <c r="O5">
-        <v>0.0036</v>
+        <v>0.0008</v>
       </c>
     </row>
   </sheetData>
@@ -8319,12 +8323,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
@@ -8382,40 +8387,40 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>42019.73</v>
+        <v>51743.99</v>
       </c>
       <c r="D2">
-        <v>99.8809</v>
+        <v>99.8775</v>
       </c>
       <c r="E2">
-        <v>59.5858</v>
+        <v>59.5703</v>
       </c>
       <c r="F2">
-        <v>170.2373</v>
+        <v>175.8236</v>
       </c>
       <c r="G2">
-        <v>1.2378</v>
+        <v>1.1368</v>
       </c>
       <c r="H2">
-        <v>705.2014</v>
+        <v>867.9311</v>
       </c>
       <c r="I2">
-        <v>2.8572</v>
+        <v>2.9565</v>
       </c>
       <c r="J2">
-        <v>585.3544999999999</v>
+        <v>586.6813</v>
       </c>
       <c r="K2">
-        <v>42019.27</v>
+        <v>51743.7</v>
       </c>
       <c r="L2">
-        <v>14.23</v>
+        <v>14.89</v>
       </c>
       <c r="M2">
-        <v>6.296</v>
+        <v>5.6327</v>
       </c>
       <c r="N2">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
     </row>
   </sheetData>
